--- a/data/synthetic_sales_data.xlsx
+++ b/data/synthetic_sales_data.xlsx
@@ -8,19 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\alphacentauri\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB0E1834-FD33-48B3-B179-B39EC332D368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF5E734-488F-490B-AA6B-F22B1813D51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D79E5EFC-F7EB-4216-A93E-82A74EC0C236}"/>
+    <workbookView xWindow="31260" yWindow="3075" windowWidth="28800" windowHeight="15345" xr2:uid="{D79E5EFC-F7EB-4216-A93E-82A74EC0C236}"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic_sales_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="3606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4677" uniqueCount="3613">
   <si>
     <t>Region</t>
   </si>
@@ -10838,6 +10855,27 @@
   </si>
   <si>
     <t>85.78</t>
+  </si>
+  <si>
+    <t>Rijlabels</t>
+  </si>
+  <si>
+    <t>(leeg)</t>
+  </si>
+  <si>
+    <t>Eindtotaal</t>
+  </si>
+  <si>
+    <t>Kolomlabels</t>
+  </si>
+  <si>
+    <t>Som van UnitsSold</t>
+  </si>
+  <si>
+    <t>(Meerdere items)</t>
+  </si>
+  <si>
+    <t>Som van Revenue</t>
   </si>
 </sst>
 </file>
@@ -11321,10 +11359,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11370,7 +11413,74 @@
     <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -11381,6 +11491,6394 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="45964.499268981483" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="101" xr:uid="{BC678E0E-A53D-4755-BBD7-9124975C2615}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:AW1048576" sheet="synthetic_sales_data"/>
+  </cacheSource>
+  <cacheFields count="49">
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="West"/>
+        <s v="South"/>
+        <s v="North"/>
+        <s v="East"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ProductLine" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Electronics"/>
+        <s v="Accessories"/>
+        <s v="Clothing"/>
+        <s v="Furniture"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-01-01T00:00:00" maxDate="2031-04-02T00:00:00"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="63142" maxValue="491877"/>
+    </cacheField>
+    <cacheField name="UnitsSold" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="95" maxValue="1997" count="96">
+        <n v="1586"/>
+        <n v="716"/>
+        <n v="395"/>
+        <n v="662"/>
+        <n v="221"/>
+        <n v="1206"/>
+        <n v="302"/>
+        <n v="479"/>
+        <n v="1624"/>
+        <n v="256"/>
+        <n v="870"/>
+        <n v="567"/>
+        <n v="183"/>
+        <n v="1245"/>
+        <n v="1850"/>
+        <n v="1358"/>
+        <n v="1986"/>
+        <n v="1261"/>
+        <n v="442"/>
+        <n v="1559"/>
+        <n v="1975"/>
+        <n v="1293"/>
+        <n v="486"/>
+        <n v="466"/>
+        <n v="1394"/>
+        <n v="376"/>
+        <n v="968"/>
+        <n v="905"/>
+        <n v="814"/>
+        <n v="1244"/>
+        <n v="1646"/>
+        <n v="784"/>
+        <n v="1256"/>
+        <n v="932"/>
+        <n v="897"/>
+        <n v="958"/>
+        <n v="692"/>
+        <n v="969"/>
+        <n v="513"/>
+        <n v="1745"/>
+        <n v="813"/>
+        <n v="634"/>
+        <n v="1354"/>
+        <n v="828"/>
+        <n v="1755"/>
+        <n v="543"/>
+        <n v="180"/>
+        <n v="1669"/>
+        <n v="95"/>
+        <n v="1513"/>
+        <n v="606"/>
+        <n v="1516"/>
+        <n v="320"/>
+        <n v="1776"/>
+        <n v="1547"/>
+        <n v="1131"/>
+        <n v="383"/>
+        <n v="1997"/>
+        <n v="181"/>
+        <n v="1816"/>
+        <n v="668"/>
+        <n v="1788"/>
+        <n v="1658"/>
+        <n v="1445"/>
+        <n v="1730"/>
+        <n v="1475"/>
+        <n v="1449"/>
+        <n v="984"/>
+        <n v="836"/>
+        <n v="1305"/>
+        <n v="1087"/>
+        <n v="1718"/>
+        <n v="1638"/>
+        <n v="1405"/>
+        <n v="802"/>
+        <n v="509"/>
+        <n v="1150"/>
+        <n v="1057"/>
+        <n v="840"/>
+        <n v="1759"/>
+        <n v="1151"/>
+        <n v="1717"/>
+        <n v="1611"/>
+        <n v="398"/>
+        <n v="561"/>
+        <n v="1231"/>
+        <n v="1247"/>
+        <n v="1859"/>
+        <n v="1649"/>
+        <n v="1410"/>
+        <n v="406"/>
+        <n v="1790"/>
+        <n v="1039"/>
+        <n v="1242"/>
+        <n v="149"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DiscountPercent" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cost" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Profit" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ProfitMargin" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_01" numFmtId="0">
+      <sharedItems containsBlank="1" count="101">
+        <s v="78.98"/>
+        <s v="72.87"/>
+        <s v="75.19"/>
+        <s v="80.44"/>
+        <s v="144.07"/>
+        <s v="122.28"/>
+        <s v="106.35"/>
+        <s v="138.66"/>
+        <s v="50.76"/>
+        <s v="117.9"/>
+        <s v="101.7"/>
+        <s v="147.01"/>
+        <s v="54.33"/>
+        <s v="143.46"/>
+        <s v="81.45"/>
+        <s v="108.73"/>
+        <s v="74.08"/>
+        <s v="72.35"/>
+        <s v="134.18"/>
+        <s v="115.79"/>
+        <s v="92.64"/>
+        <s v="69.65"/>
+        <s v="149.67"/>
+        <s v="53.8"/>
+        <s v="79.5"/>
+        <s v="134.78"/>
+        <s v="128.67"/>
+        <s v="72.97"/>
+        <s v="121.69"/>
+        <s v="80.06"/>
+        <s v="129.39"/>
+        <s v="83.36"/>
+        <s v="92.74"/>
+        <s v="123.6"/>
+        <s v="70.24"/>
+        <s v="75.27"/>
+        <s v="63.63"/>
+        <s v="123.66"/>
+        <s v="90.26"/>
+        <s v="90.14"/>
+        <s v="74.38"/>
+        <s v="120.72"/>
+        <s v="100.47"/>
+        <s v="141.3"/>
+        <s v="110.68"/>
+        <s v="143.18"/>
+        <s v="53.73"/>
+        <s v="115.94"/>
+        <s v="116.08"/>
+        <s v="64.18"/>
+        <s v="96.48"/>
+        <s v="143.69"/>
+        <s v="143.21"/>
+        <s v="117.59"/>
+        <s v="142.71"/>
+        <s v="98.24"/>
+        <s v="73.42"/>
+        <s v="99.39"/>
+        <s v="115.82"/>
+        <s v="76.77"/>
+        <s v="124.66"/>
+        <s v="109.26"/>
+        <s v="135.17"/>
+        <s v="62.48"/>
+        <s v="123.4"/>
+        <s v="77.01"/>
+        <s v="111.46"/>
+        <s v="73.84"/>
+        <s v="126.72"/>
+        <s v="136.04"/>
+        <s v="131.93"/>
+        <s v="66.26"/>
+        <s v="78.89"/>
+        <s v="144.21"/>
+        <s v="61.28"/>
+        <s v="105.38"/>
+        <s v="115.67"/>
+        <s v="65.89"/>
+        <s v="132.06"/>
+        <s v="106.26"/>
+        <s v="57.52"/>
+        <s v="149.27"/>
+        <s v="122.86"/>
+        <s v="104.84"/>
+        <s v="129.51"/>
+        <s v="124.76"/>
+        <s v="98.41"/>
+        <s v="130.56"/>
+        <s v="110.09"/>
+        <s v="83.96"/>
+        <s v="68.84"/>
+        <s v="65.86"/>
+        <s v="83.38"/>
+        <s v="128.85"/>
+        <s v="132.64"/>
+        <s v="92.38"/>
+        <s v="95.84"/>
+        <s v="120.03"/>
+        <s v="96.94"/>
+        <s v="138.9"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="KPI_02" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_03" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_04" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_05" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_06" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_07" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_08" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_09" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_12" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_13" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_14" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_15" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_16" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_17" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_18" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_19" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_20" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_21" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_22" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_23" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_24" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_25" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_26" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_27" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_28" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_29" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_30" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_31" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_32" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_33" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_34" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_35" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_36" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_37" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_38" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_39" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KPI_40" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="101">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="2023-01-01T00:00:00"/>
+    <n v="460182"/>
+    <x v="0"/>
+    <s v="0.19"/>
+    <s v="378293.21"/>
+    <s v="81888.79"/>
+    <s v="0.18"/>
+    <x v="0"/>
+    <s v="131.43"/>
+    <s v="67.89"/>
+    <s v="61.48"/>
+    <s v="140.88"/>
+    <s v="132.24"/>
+    <s v="116.88"/>
+    <s v="110.36"/>
+    <s v="104.15"/>
+    <s v="73.07"/>
+    <s v="135.75"/>
+    <s v="90.99"/>
+    <s v="58.48"/>
+    <s v="144.7"/>
+    <s v="54.94"/>
+    <s v="66.14"/>
+    <s v="56.83"/>
+    <s v="136.04"/>
+    <s v="108.21"/>
+    <s v="92.36"/>
+    <s v="140.81"/>
+    <s v="103.3"/>
+    <s v="132.46"/>
+    <s v="99.79"/>
+    <s v="98.26"/>
+    <s v="135.57"/>
+    <s v="117.97"/>
+    <s v="69.34"/>
+    <s v="139.7"/>
+    <s v="146.4"/>
+    <s v="85.24"/>
+    <s v="88.4"/>
+    <s v="87.21"/>
+    <s v="82.63"/>
+    <s v="58.26"/>
+    <s v="116.1"/>
+    <s v="112.38"/>
+    <s v="80.45"/>
+    <s v="63.69"/>
+    <s v="91.99"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="2023-02-01T00:00:00"/>
+    <n v="272420"/>
+    <x v="1"/>
+    <s v="0.17"/>
+    <s v="169550.94"/>
+    <s v="102869.06"/>
+    <s v="0.38"/>
+    <x v="1"/>
+    <s v="71.45"/>
+    <s v="95.52"/>
+    <s v="74.87"/>
+    <s v="60.2"/>
+    <s v="53.65"/>
+    <s v="95.09"/>
+    <s v="145.01"/>
+    <s v="119.45"/>
+    <s v="89.39"/>
+    <s v="131.79"/>
+    <s v="94.16"/>
+    <s v="141.01"/>
+    <s v="91.01"/>
+    <s v="137.03"/>
+    <s v="141.43"/>
+    <s v="117.36"/>
+    <s v="126.1"/>
+    <s v="115.74"/>
+    <s v="145.32"/>
+    <s v="114.34"/>
+    <s v="140.26"/>
+    <s v="135.42"/>
+    <s v="61.41"/>
+    <s v="145.33"/>
+    <s v="115.73"/>
+    <s v="88.89"/>
+    <s v="99.25"/>
+    <s v="105.15"/>
+    <s v="147.57"/>
+    <s v="119.08"/>
+    <s v="63.75"/>
+    <s v="139.68"/>
+    <s v="119.74"/>
+    <s v="116.19"/>
+    <s v="134.28"/>
+    <s v="128.87"/>
+    <s v="136.67"/>
+    <s v="66.65"/>
+    <s v="87.59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2023-03-01T00:00:00"/>
+    <n v="321483"/>
+    <x v="2"/>
+    <s v="0.28"/>
+    <s v="236719.17"/>
+    <s v="84763.83"/>
+    <s v="0.26"/>
+    <x v="2"/>
+    <s v="114.02"/>
+    <s v="137.72"/>
+    <s v="149.0"/>
+    <s v="64.7"/>
+    <s v="88.7"/>
+    <s v="79.65"/>
+    <s v="54.9"/>
+    <s v="88.22"/>
+    <s v="120.71"/>
+    <s v="104.8"/>
+    <s v="106.09"/>
+    <s v="80.42"/>
+    <s v="55.21"/>
+    <s v="140.75"/>
+    <s v="100.66"/>
+    <s v="118.43"/>
+    <s v="55.39"/>
+    <s v="75.67"/>
+    <s v="105.04"/>
+    <s v="99.97"/>
+    <s v="74.59"/>
+    <s v="120.91"/>
+    <s v="62.54"/>
+    <s v="138.35"/>
+    <s v="125.01"/>
+    <s v="110.46"/>
+    <s v="113.42"/>
+    <s v="79.43"/>
+    <s v="120.59"/>
+    <s v="117.72"/>
+    <s v="116.69"/>
+    <s v="125.41"/>
+    <s v="138.13"/>
+    <s v="126.55"/>
+    <s v="58.08"/>
+    <s v="137.69"/>
+    <s v="102.62"/>
+    <s v="79.66"/>
+    <s v="94.06"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="2023-04-01T00:00:00"/>
+    <n v="83002"/>
+    <x v="3"/>
+    <s v="0.04"/>
+    <s v="61797.97"/>
+    <s v="21204.03"/>
+    <s v="0.26"/>
+    <x v="3"/>
+    <s v="51.63"/>
+    <s v="100.65"/>
+    <s v="135.45"/>
+    <s v="118.74"/>
+    <s v="62.73"/>
+    <s v="50.54"/>
+    <s v="81.34"/>
+    <s v="108.07"/>
+    <s v="129.09"/>
+    <s v="98.47"/>
+    <s v="59.37"/>
+    <s v="111.5"/>
+    <s v="88.96"/>
+    <s v="98.42"/>
+    <s v="108.01"/>
+    <s v="73.77"/>
+    <s v="116.3"/>
+    <s v="145.23"/>
+    <s v="68.09"/>
+    <s v="128.92"/>
+    <s v="94.77"/>
+    <s v="101.98"/>
+    <s v="110.11"/>
+    <s v="134.28"/>
+    <s v="139.31"/>
+    <s v="65.77"/>
+    <s v="125.37"/>
+    <s v="102.51"/>
+    <s v="106.92"/>
+    <s v="73.8"/>
+    <s v="93.08"/>
+    <s v="61.0"/>
+    <s v="125.94"/>
+    <s v="80.71"/>
+    <s v="119.66"/>
+    <s v="92.01"/>
+    <s v="145.04"/>
+    <s v="76.08"/>
+    <s v="121.29"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="175055"/>
+    <x v="4"/>
+    <s v="0.07"/>
+    <s v="126326.89"/>
+    <s v="48728.11"/>
+    <s v="0.28"/>
+    <x v="4"/>
+    <s v="115.16"/>
+    <s v="137.46"/>
+    <s v="89.7"/>
+    <s v="73.55"/>
+    <s v="128.74"/>
+    <s v="81.67"/>
+    <s v="145.8"/>
+    <s v="123.11"/>
+    <s v="109.19"/>
+    <s v="69.63"/>
+    <s v="81.22"/>
+    <s v="139.17"/>
+    <s v="59.29"/>
+    <s v="124.11"/>
+    <s v="142.05"/>
+    <s v="90.83"/>
+    <s v="117.76"/>
+    <s v="58.4"/>
+    <s v="130.62"/>
+    <s v="147.39"/>
+    <s v="77.71"/>
+    <s v="113.48"/>
+    <s v="75.07"/>
+    <s v="126.5"/>
+    <s v="142.83"/>
+    <s v="54.45"/>
+    <s v="93.6"/>
+    <s v="51.8"/>
+    <s v="85.67"/>
+    <s v="98.28"/>
+    <s v="74.81"/>
+    <s v="133.54"/>
+    <s v="79.72"/>
+    <s v="109.43"/>
+    <s v="124.54"/>
+    <s v="78.81"/>
+    <s v="64.79"/>
+    <s v="100.61"/>
+    <s v="133.85"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="2023-06-01T00:00:00"/>
+    <n v="359106"/>
+    <x v="5"/>
+    <s v="0.16"/>
+    <s v="245243.77"/>
+    <s v="113862.23"/>
+    <s v="0.32"/>
+    <x v="5"/>
+    <s v="145.66"/>
+    <s v="119.71"/>
+    <s v="125.06"/>
+    <s v="141.47"/>
+    <s v="117.81"/>
+    <s v="52.49"/>
+    <s v="117.08"/>
+    <s v="81.13"/>
+    <s v="90.67"/>
+    <s v="53.06"/>
+    <s v="58.17"/>
+    <s v="110.56"/>
+    <s v="132.99"/>
+    <s v="84.58"/>
+    <s v="98.8"/>
+    <s v="101.4"/>
+    <s v="121.91"/>
+    <s v="56.79"/>
+    <s v="104.83"/>
+    <s v="82.46"/>
+    <s v="148.66"/>
+    <s v="132.74"/>
+    <s v="80.27"/>
+    <s v="86.76"/>
+    <s v="131.09"/>
+    <s v="139.28"/>
+    <s v="126.09"/>
+    <s v="108.34"/>
+    <s v="110.96"/>
+    <s v="112.61"/>
+    <s v="131.93"/>
+    <s v="149.05"/>
+    <s v="99.0"/>
+    <s v="138.1"/>
+    <s v="146.54"/>
+    <s v="73.82"/>
+    <s v="85.22"/>
+    <s v="115.08"/>
+    <s v="86.44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2023-07-01T00:00:00"/>
+    <n v="342947"/>
+    <x v="6"/>
+    <s v="0.13"/>
+    <s v="207604.52"/>
+    <s v="135342.48"/>
+    <s v="0.39"/>
+    <x v="6"/>
+    <s v="58.2"/>
+    <s v="148.72"/>
+    <s v="144.1"/>
+    <s v="99.64"/>
+    <s v="70.51"/>
+    <s v="145.78"/>
+    <s v="54.99"/>
+    <s v="101.96"/>
+    <s v="52.84"/>
+    <s v="77.93"/>
+    <s v="76.81"/>
+    <s v="136.32"/>
+    <s v="131.74"/>
+    <s v="128.29"/>
+    <s v="116.66"/>
+    <s v="118.06"/>
+    <s v="90.74"/>
+    <s v="125.3"/>
+    <s v="77.64"/>
+    <s v="144.32"/>
+    <s v="113.17"/>
+    <s v="85.58"/>
+    <s v="91.73"/>
+    <s v="105.3"/>
+    <s v="135.03"/>
+    <s v="149.96"/>
+    <s v="52.67"/>
+    <s v="132.71"/>
+    <s v="101.49"/>
+    <s v="73.14"/>
+    <s v="141.21"/>
+    <s v="68.84"/>
+    <s v="97.92"/>
+    <s v="51.64"/>
+    <s v="124.68"/>
+    <s v="121.17"/>
+    <s v="138.29"/>
+    <s v="78.53"/>
+    <s v="136.02"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2023-08-01T00:00:00"/>
+    <n v="118812"/>
+    <x v="7"/>
+    <s v="0.21"/>
+    <s v="98128.99"/>
+    <s v="20683.01"/>
+    <s v="0.17"/>
+    <x v="7"/>
+    <s v="111.27"/>
+    <s v="94.62"/>
+    <s v="86.7"/>
+    <s v="56.55"/>
+    <s v="102.25"/>
+    <s v="115.04"/>
+    <s v="116.62"/>
+    <s v="113.53"/>
+    <s v="53.87"/>
+    <s v="97.03"/>
+    <s v="86.64"/>
+    <s v="103.67"/>
+    <s v="73.88"/>
+    <s v="112.23"/>
+    <s v="88.82"/>
+    <s v="102.52"/>
+    <s v="88.08"/>
+    <s v="58.32"/>
+    <s v="105.63"/>
+    <s v="145.85"/>
+    <s v="116.18"/>
+    <s v="94.29"/>
+    <s v="95.22"/>
+    <s v="84.75"/>
+    <s v="118.64"/>
+    <s v="136.94"/>
+    <s v="128.61"/>
+    <s v="98.77"/>
+    <s v="110.57"/>
+    <s v="86.73"/>
+    <s v="85.54"/>
+    <s v="132.82"/>
+    <s v="56.68"/>
+    <s v="146.7"/>
+    <s v="135.36"/>
+    <s v="120.57"/>
+    <s v="63.29"/>
+    <s v="112.76"/>
+    <s v="135.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2023-09-01T00:00:00"/>
+    <n v="220378"/>
+    <x v="8"/>
+    <s v="0.23"/>
+    <s v="180348.38"/>
+    <s v="40029.62"/>
+    <s v="0.18"/>
+    <x v="8"/>
+    <s v="118.68"/>
+    <s v="107.49"/>
+    <s v="121.26"/>
+    <s v="130.47"/>
+    <s v="62.86"/>
+    <s v="144.81"/>
+    <s v="80.98"/>
+    <s v="51.76"/>
+    <s v="72.09"/>
+    <s v="100.54"/>
+    <s v="63.86"/>
+    <s v="123.87"/>
+    <s v="82.57"/>
+    <s v="73.16"/>
+    <s v="120.21"/>
+    <s v="104.5"/>
+    <s v="90.27"/>
+    <s v="93.63"/>
+    <s v="84.92"/>
+    <s v="78.34"/>
+    <s v="115.32"/>
+    <s v="75.2"/>
+    <s v="101.02"/>
+    <s v="120.08"/>
+    <s v="66.86"/>
+    <s v="68.18"/>
+    <s v="102.73"/>
+    <s v="127.81"/>
+    <s v="99.27"/>
+    <s v="133.01"/>
+    <s v="63.16"/>
+    <s v="77.42"/>
+    <s v="71.47"/>
+    <s v="87.33"/>
+    <s v="66.68"/>
+    <s v="74.48"/>
+    <s v="149.21"/>
+    <s v="114.54"/>
+    <s v="95.46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2023-10-01T00:00:00"/>
+    <n v="422037"/>
+    <x v="9"/>
+    <s v="0.25"/>
+    <s v="344972.2"/>
+    <s v="77064.8"/>
+    <s v="0.18"/>
+    <x v="9"/>
+    <s v="145.08"/>
+    <s v="88.51"/>
+    <s v="109.8"/>
+    <s v="59.33"/>
+    <s v="71.09"/>
+    <s v="91.03"/>
+    <s v="118.24"/>
+    <s v="117.46"/>
+    <s v="110.84"/>
+    <s v="77.36"/>
+    <s v="80.53"/>
+    <s v="68.25"/>
+    <s v="68.42"/>
+    <s v="121.57"/>
+    <s v="110.69"/>
+    <s v="105.96"/>
+    <s v="126.47"/>
+    <s v="65.15"/>
+    <s v="129.48"/>
+    <s v="115.75"/>
+    <s v="110.06"/>
+    <s v="92.03"/>
+    <s v="142.61"/>
+    <s v="143.87"/>
+    <s v="90.0"/>
+    <s v="51.72"/>
+    <s v="92.62"/>
+    <s v="71.73"/>
+    <s v="124.36"/>
+    <s v="61.94"/>
+    <s v="81.34"/>
+    <s v="84.52"/>
+    <s v="78.2"/>
+    <s v="109.4"/>
+    <s v="139.14"/>
+    <s v="102.25"/>
+    <s v="122.7"/>
+    <s v="51.38"/>
+    <s v="74.74"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2023-11-01T00:00:00"/>
+    <n v="177574"/>
+    <x v="10"/>
+    <s v="0.09"/>
+    <s v="145622.74"/>
+    <s v="31951.26"/>
+    <s v="0.18"/>
+    <x v="10"/>
+    <s v="96.23"/>
+    <s v="76.08"/>
+    <s v="124.89"/>
+    <s v="87.01"/>
+    <s v="76.57"/>
+    <s v="70.99"/>
+    <s v="93.13"/>
+    <s v="136.85"/>
+    <s v="139.73"/>
+    <s v="62.61"/>
+    <s v="121.86"/>
+    <s v="77.19"/>
+    <s v="133.23"/>
+    <s v="133.85"/>
+    <s v="104.07"/>
+    <s v="95.06"/>
+    <s v="149.15"/>
+    <s v="147.05"/>
+    <s v="101.34"/>
+    <s v="96.49"/>
+    <s v="129.08"/>
+    <s v="63.54"/>
+    <s v="127.65"/>
+    <s v="80.5"/>
+    <s v="65.02"/>
+    <s v="148.98"/>
+    <s v="108.92"/>
+    <s v="55.32"/>
+    <s v="58.84"/>
+    <s v="116.91"/>
+    <s v="88.84"/>
+    <s v="60.77"/>
+    <s v="86.16"/>
+    <s v="135.23"/>
+    <s v="92.99"/>
+    <s v="132.02"/>
+    <s v="111.91"/>
+    <s v="144.46"/>
+    <s v="144.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2023-12-01T00:00:00"/>
+    <n v="149965"/>
+    <x v="11"/>
+    <s v="0.28"/>
+    <s v="122272.02"/>
+    <s v="27692.98"/>
+    <s v="0.18"/>
+    <x v="11"/>
+    <s v="83.38"/>
+    <s v="79.67"/>
+    <s v="139.07"/>
+    <s v="52.56"/>
+    <s v="140.86"/>
+    <s v="97.92"/>
+    <s v="95.92"/>
+    <s v="144.46"/>
+    <s v="113.06"/>
+    <s v="75.08"/>
+    <s v="61.93"/>
+    <s v="89.9"/>
+    <s v="148.41"/>
+    <s v="87.99"/>
+    <s v="52.45"/>
+    <s v="118.62"/>
+    <s v="127.29"/>
+    <s v="137.51"/>
+    <s v="106.22"/>
+    <s v="77.82"/>
+    <s v="85.22"/>
+    <s v="136.72"/>
+    <s v="50.38"/>
+    <s v="88.67"/>
+    <s v="109.92"/>
+    <s v="75.74"/>
+    <s v="120.5"/>
+    <s v="119.67"/>
+    <s v="138.69"/>
+    <s v="98.01"/>
+    <s v="113.16"/>
+    <s v="92.04"/>
+    <s v="145.47"/>
+    <s v="150.0"/>
+    <s v="113.92"/>
+    <s v="145.17"/>
+    <s v="64.49"/>
+    <s v="51.43"/>
+    <s v="75.89"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2024-01-01T00:00:00"/>
+    <n v="357986"/>
+    <x v="12"/>
+    <s v="0.08"/>
+    <s v="267839.01"/>
+    <s v="90146.99"/>
+    <s v="0.25"/>
+    <x v="12"/>
+    <s v="131.09"/>
+    <s v="149.06"/>
+    <s v="74.8"/>
+    <s v="131.96"/>
+    <s v="133.01"/>
+    <s v="56.21"/>
+    <s v="124.04"/>
+    <s v="117.68"/>
+    <s v="76.29"/>
+    <s v="119.46"/>
+    <s v="142.61"/>
+    <s v="98.79"/>
+    <s v="57.12"/>
+    <s v="80.37"/>
+    <s v="145.11"/>
+    <s v="146.07"/>
+    <s v="146.79"/>
+    <s v="79.62"/>
+    <s v="88.91"/>
+    <s v="126.46"/>
+    <s v="140.04"/>
+    <s v="100.04"/>
+    <s v="128.83"/>
+    <s v="124.11"/>
+    <s v="55.49"/>
+    <s v="95.66"/>
+    <s v="61.27"/>
+    <s v="122.7"/>
+    <s v="95.64"/>
+    <s v="128.56"/>
+    <s v="129.85"/>
+    <s v="141.44"/>
+    <s v="122.93"/>
+    <s v="96.25"/>
+    <s v="127.85"/>
+    <s v="67.83"/>
+    <s v="78.01"/>
+    <s v="85.1"/>
+    <s v="133.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="2024-02-01T00:00:00"/>
+    <n v="170541"/>
+    <x v="13"/>
+    <s v="0.13"/>
+    <s v="121976.49"/>
+    <s v="48564.51"/>
+    <s v="0.28"/>
+    <x v="13"/>
+    <s v="80.24"/>
+    <s v="129.98"/>
+    <s v="106.95"/>
+    <s v="86.29"/>
+    <s v="95.04"/>
+    <s v="113.38"/>
+    <s v="86.35"/>
+    <s v="147.99"/>
+    <s v="67.66"/>
+    <s v="50.92"/>
+    <s v="142.0"/>
+    <s v="109.74"/>
+    <s v="137.97"/>
+    <s v="76.34"/>
+    <s v="127.35"/>
+    <s v="141.65"/>
+    <s v="78.75"/>
+    <s v="137.55"/>
+    <s v="62.0"/>
+    <s v="123.41"/>
+    <s v="53.14"/>
+    <s v="91.06"/>
+    <s v="89.73"/>
+    <s v="98.26"/>
+    <s v="112.18"/>
+    <s v="102.83"/>
+    <s v="87.36"/>
+    <s v="58.87"/>
+    <s v="99.64"/>
+    <s v="63.74"/>
+    <s v="83.87"/>
+    <s v="119.99"/>
+    <s v="110.12"/>
+    <s v="91.4"/>
+    <s v="71.24"/>
+    <s v="71.78"/>
+    <s v="108.38"/>
+    <s v="81.4"/>
+    <s v="121.45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="2024-03-01T00:00:00"/>
+    <n v="261987"/>
+    <x v="14"/>
+    <s v="0.14"/>
+    <s v="188338.82"/>
+    <s v="73648.18"/>
+    <s v="0.28"/>
+    <x v="14"/>
+    <s v="96.26"/>
+    <s v="129.82"/>
+    <s v="116.18"/>
+    <s v="82.57"/>
+    <s v="138.58"/>
+    <s v="104.24"/>
+    <s v="96.87"/>
+    <s v="100.41"/>
+    <s v="68.18"/>
+    <s v="94.43"/>
+    <s v="69.44"/>
+    <s v="102.29"/>
+    <s v="56.66"/>
+    <s v="74.03"/>
+    <s v="103.29"/>
+    <s v="74.56"/>
+    <s v="61.38"/>
+    <s v="91.58"/>
+    <s v="57.08"/>
+    <s v="88.35"/>
+    <s v="115.99"/>
+    <s v="51.17"/>
+    <s v="75.05"/>
+    <s v="146.31"/>
+    <s v="72.79"/>
+    <s v="76.82"/>
+    <s v="80.33"/>
+    <s v="123.01"/>
+    <s v="139.13"/>
+    <s v="138.58"/>
+    <s v="56.32"/>
+    <s v="62.13"/>
+    <s v="149.53"/>
+    <s v="83.98"/>
+    <s v="131.1"/>
+    <s v="83.52"/>
+    <s v="121.69"/>
+    <s v="88.34"/>
+    <s v="144.82"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="2024-04-01T00:00:00"/>
+    <n v="148486"/>
+    <x v="15"/>
+    <s v="0.23"/>
+    <s v="107682.37"/>
+    <s v="40803.63"/>
+    <s v="0.27"/>
+    <x v="15"/>
+    <s v="61.62"/>
+    <s v="125.17"/>
+    <s v="71.22"/>
+    <s v="74.88"/>
+    <s v="66.51"/>
+    <s v="138.77"/>
+    <s v="116.85"/>
+    <s v="108.5"/>
+    <s v="121.22"/>
+    <s v="78.8"/>
+    <s v="71.21"/>
+    <s v="50.46"/>
+    <s v="139.37"/>
+    <s v="51.33"/>
+    <s v="143.74"/>
+    <s v="89.67"/>
+    <s v="66.93"/>
+    <s v="51.39"/>
+    <s v="148.24"/>
+    <s v="144.37"/>
+    <s v="56.78"/>
+    <s v="147.43"/>
+    <s v="85.34"/>
+    <s v="67.0"/>
+    <s v="140.44"/>
+    <s v="128.77"/>
+    <s v="146.26"/>
+    <s v="126.58"/>
+    <s v="105.47"/>
+    <s v="134.68"/>
+    <s v="93.84"/>
+    <s v="78.54"/>
+    <s v="68.66"/>
+    <s v="102.4"/>
+    <s v="107.0"/>
+    <s v="76.79"/>
+    <s v="75.23"/>
+    <s v="123.51"/>
+    <s v="94.28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2024-05-01T00:00:00"/>
+    <n v="145076"/>
+    <x v="16"/>
+    <s v="0.1"/>
+    <s v="101691.55"/>
+    <s v="43384.45"/>
+    <s v="0.3"/>
+    <x v="16"/>
+    <s v="80.2"/>
+    <s v="90.75"/>
+    <s v="89.44"/>
+    <s v="132.58"/>
+    <s v="129.18"/>
+    <s v="69.37"/>
+    <s v="115.6"/>
+    <s v="60.6"/>
+    <s v="135.04"/>
+    <s v="62.39"/>
+    <s v="130.44"/>
+    <s v="143.51"/>
+    <s v="118.79"/>
+    <s v="147.7"/>
+    <s v="107.21"/>
+    <s v="78.03"/>
+    <s v="100.21"/>
+    <s v="147.11"/>
+    <s v="85.45"/>
+    <s v="63.27"/>
+    <s v="65.41"/>
+    <s v="109.47"/>
+    <s v="77.88"/>
+    <s v="131.48"/>
+    <s v="113.37"/>
+    <s v="130.7"/>
+    <s v="65.22"/>
+    <s v="135.51"/>
+    <s v="126.31"/>
+    <s v="75.34"/>
+    <s v="115.77"/>
+    <s v="57.78"/>
+    <s v="136.51"/>
+    <s v="59.19"/>
+    <s v="93.9"/>
+    <s v="119.61"/>
+    <s v="97.74"/>
+    <s v="64.56"/>
+    <s v="126.14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2024-06-01T00:00:00"/>
+    <n v="161745"/>
+    <x v="17"/>
+    <s v="0.03"/>
+    <s v="124667.65"/>
+    <s v="37077.35"/>
+    <s v="0.23"/>
+    <x v="17"/>
+    <s v="135.19"/>
+    <s v="93.34"/>
+    <s v="100.58"/>
+    <s v="109.31"/>
+    <s v="112.64"/>
+    <s v="74.53"/>
+    <s v="110.93"/>
+    <s v="130.21"/>
+    <s v="148.0"/>
+    <s v="109.45"/>
+    <s v="123.13"/>
+    <s v="119.87"/>
+    <s v="56.41"/>
+    <s v="72.59"/>
+    <s v="126.15"/>
+    <s v="50.23"/>
+    <s v="134.21"/>
+    <s v="118.61"/>
+    <s v="70.61"/>
+    <s v="106.84"/>
+    <s v="140.71"/>
+    <s v="94.76"/>
+    <s v="95.02"/>
+    <s v="109.43"/>
+    <s v="136.69"/>
+    <s v="58.5"/>
+    <s v="123.88"/>
+    <s v="104.31"/>
+    <s v="55.37"/>
+    <s v="78.27"/>
+    <s v="117.85"/>
+    <s v="103.79"/>
+    <s v="115.03"/>
+    <s v="91.63"/>
+    <s v="106.74"/>
+    <s v="72.72"/>
+    <s v="114.85"/>
+    <s v="133.27"/>
+    <s v="65.17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <d v="2024-07-01T00:00:00"/>
+    <n v="110131"/>
+    <x v="18"/>
+    <s v="0.11"/>
+    <s v="79642.45"/>
+    <s v="30488.55"/>
+    <s v="0.28"/>
+    <x v="18"/>
+    <s v="134.47"/>
+    <s v="66.19"/>
+    <s v="76.7"/>
+    <s v="89.51"/>
+    <s v="147.89"/>
+    <s v="147.06"/>
+    <s v="123.87"/>
+    <s v="124.3"/>
+    <s v="53.28"/>
+    <s v="131.02"/>
+    <s v="82.51"/>
+    <s v="124.33"/>
+    <s v="114.91"/>
+    <s v="131.82"/>
+    <s v="81.58"/>
+    <s v="124.6"/>
+    <s v="51.02"/>
+    <s v="133.71"/>
+    <s v="126.29"/>
+    <s v="136.95"/>
+    <s v="148.93"/>
+    <s v="68.86"/>
+    <s v="67.49"/>
+    <s v="147.89"/>
+    <s v="110.06"/>
+    <s v="124.28"/>
+    <s v="145.67"/>
+    <s v="101.8"/>
+    <s v="124.92"/>
+    <s v="50.6"/>
+    <s v="88.58"/>
+    <s v="101.62"/>
+    <s v="147.31"/>
+    <s v="75.21"/>
+    <s v="70.8"/>
+    <s v="146.02"/>
+    <s v="141.51"/>
+    <s v="110.42"/>
+    <s v="123.05"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="2024-08-01T00:00:00"/>
+    <n v="278708"/>
+    <x v="19"/>
+    <s v="0.14"/>
+    <s v="174655.62"/>
+    <s v="104052.38"/>
+    <s v="0.37"/>
+    <x v="19"/>
+    <s v="129.33"/>
+    <s v="76.77"/>
+    <s v="88.97"/>
+    <s v="86.14"/>
+    <s v="87.85"/>
+    <s v="126.13"/>
+    <s v="132.86"/>
+    <s v="70.62"/>
+    <s v="60.39"/>
+    <s v="53.79"/>
+    <s v="85.5"/>
+    <s v="107.22"/>
+    <s v="68.41"/>
+    <s v="144.66"/>
+    <s v="107.51"/>
+    <s v="148.49"/>
+    <s v="121.24"/>
+    <s v="56.72"/>
+    <s v="114.14"/>
+    <s v="85.0"/>
+    <s v="80.5"/>
+    <s v="53.16"/>
+    <s v="82.37"/>
+    <s v="115.18"/>
+    <s v="90.28"/>
+    <s v="130.6"/>
+    <s v="129.6"/>
+    <s v="64.11"/>
+    <s v="55.12"/>
+    <s v="53.26"/>
+    <s v="66.8"/>
+    <s v="122.19"/>
+    <s v="107.48"/>
+    <s v="60.46"/>
+    <s v="97.41"/>
+    <s v="105.55"/>
+    <s v="60.09"/>
+    <s v="129.95"/>
+    <s v="112.52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="2024-09-01T00:00:00"/>
+    <n v="105436"/>
+    <x v="20"/>
+    <s v="0.2"/>
+    <s v="82911.29"/>
+    <s v="22524.71"/>
+    <s v="0.21"/>
+    <x v="20"/>
+    <s v="106.14"/>
+    <s v="53.3"/>
+    <s v="148.95"/>
+    <s v="137.74"/>
+    <s v="80.56"/>
+    <s v="137.89"/>
+    <s v="73.03"/>
+    <s v="101.75"/>
+    <s v="110.6"/>
+    <s v="148.93"/>
+    <s v="89.42"/>
+    <s v="83.13"/>
+    <s v="85.58"/>
+    <s v="69.38"/>
+    <s v="78.29"/>
+    <s v="88.61"/>
+    <s v="115.5"/>
+    <s v="73.65"/>
+    <s v="107.91"/>
+    <s v="120.8"/>
+    <s v="124.91"/>
+    <s v="78.22"/>
+    <s v="112.7"/>
+    <s v="123.95"/>
+    <s v="68.93"/>
+    <s v="89.86"/>
+    <s v="112.64"/>
+    <s v="51.61"/>
+    <s v="125.56"/>
+    <s v="106.89"/>
+    <s v="129.1"/>
+    <s v="79.8"/>
+    <s v="129.71"/>
+    <s v="91.34"/>
+    <s v="80.93"/>
+    <s v="126.48"/>
+    <s v="95.15"/>
+    <s v="74.25"/>
+    <s v="58.14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2024-10-01T00:00:00"/>
+    <n v="356301"/>
+    <x v="21"/>
+    <s v="0.1"/>
+    <s v="293926.47"/>
+    <s v="62374.53"/>
+    <s v="0.18"/>
+    <x v="21"/>
+    <s v="102.39"/>
+    <s v="70.16"/>
+    <s v="90.07"/>
+    <s v="117.36"/>
+    <s v="149.21"/>
+    <s v="87.94"/>
+    <s v="69.36"/>
+    <s v="147.56"/>
+    <s v="145.98"/>
+    <s v="73.82"/>
+    <s v="109.04"/>
+    <s v="143.94"/>
+    <s v="55.35"/>
+    <s v="138.95"/>
+    <s v="66.98"/>
+    <s v="79.27"/>
+    <s v="135.13"/>
+    <s v="94.54"/>
+    <s v="86.33"/>
+    <s v="94.16"/>
+    <s v="144.72"/>
+    <s v="105.18"/>
+    <s v="149.14"/>
+    <s v="92.53"/>
+    <s v="55.22"/>
+    <s v="78.24"/>
+    <s v="146.76"/>
+    <s v="129.89"/>
+    <s v="119.52"/>
+    <s v="86.8"/>
+    <s v="112.15"/>
+    <s v="133.62"/>
+    <s v="91.15"/>
+    <s v="80.49"/>
+    <s v="64.94"/>
+    <s v="80.19"/>
+    <s v="126.13"/>
+    <s v="124.81"/>
+    <s v="149.38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2024-11-01T00:00:00"/>
+    <n v="485134"/>
+    <x v="22"/>
+    <s v="0.23"/>
+    <s v="403557.89"/>
+    <s v="81576.11"/>
+    <s v="0.17"/>
+    <x v="22"/>
+    <s v="148.23"/>
+    <s v="103.71"/>
+    <s v="123.3"/>
+    <s v="109.65"/>
+    <s v="81.61"/>
+    <s v="90.55"/>
+    <s v="117.46"/>
+    <s v="50.17"/>
+    <s v="139.85"/>
+    <s v="99.17"/>
+    <s v="72.58"/>
+    <s v="108.93"/>
+    <s v="90.45"/>
+    <s v="117.63"/>
+    <s v="53.75"/>
+    <s v="82.62"/>
+    <s v="115.35"/>
+    <s v="140.32"/>
+    <s v="77.05"/>
+    <s v="64.67"/>
+    <s v="125.59"/>
+    <s v="143.88"/>
+    <s v="115.08"/>
+    <s v="93.38"/>
+    <s v="69.38"/>
+    <s v="73.83"/>
+    <s v="126.4"/>
+    <s v="120.13"/>
+    <s v="118.57"/>
+    <s v="131.29"/>
+    <s v="130.49"/>
+    <s v="123.81"/>
+    <s v="56.17"/>
+    <s v="108.64"/>
+    <s v="106.3"/>
+    <s v="71.17"/>
+    <s v="101.77"/>
+    <s v="132.14"/>
+    <s v="119.02"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="2024-12-01T00:00:00"/>
+    <n v="153366"/>
+    <x v="23"/>
+    <s v="0.19"/>
+    <s v="122677.54"/>
+    <s v="30688.46"/>
+    <s v="0.2"/>
+    <x v="23"/>
+    <s v="90.86"/>
+    <s v="96.98"/>
+    <s v="136.83"/>
+    <s v="122.1"/>
+    <s v="69.09"/>
+    <s v="121.86"/>
+    <s v="93.14"/>
+    <s v="56.88"/>
+    <s v="73.2"/>
+    <s v="74.65"/>
+    <s v="52.41"/>
+    <s v="79.63"/>
+    <s v="73.34"/>
+    <s v="134.61"/>
+    <s v="147.76"/>
+    <s v="95.45"/>
+    <s v="128.29"/>
+    <s v="72.58"/>
+    <s v="104.77"/>
+    <s v="117.27"/>
+    <s v="138.82"/>
+    <s v="94.25"/>
+    <s v="91.55"/>
+    <s v="60.1"/>
+    <s v="99.57"/>
+    <s v="130.85"/>
+    <s v="62.96"/>
+    <s v="127.86"/>
+    <s v="72.73"/>
+    <s v="71.86"/>
+    <s v="79.49"/>
+    <s v="132.32"/>
+    <s v="68.87"/>
+    <s v="69.48"/>
+    <s v="94.65"/>
+    <s v="110.37"/>
+    <s v="67.88"/>
+    <s v="142.06"/>
+    <s v="67.46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="2025-01-01T00:00:00"/>
+    <n v="237671"/>
+    <x v="24"/>
+    <s v="0.23"/>
+    <s v="158310.25"/>
+    <s v="79360.75"/>
+    <s v="0.33"/>
+    <x v="24"/>
+    <s v="127.61"/>
+    <s v="76.93"/>
+    <s v="98.74"/>
+    <s v="66.52"/>
+    <s v="106.45"/>
+    <s v="76.94"/>
+    <s v="63.83"/>
+    <s v="78.74"/>
+    <s v="93.95"/>
+    <s v="92.81"/>
+    <s v="61.31"/>
+    <s v="94.28"/>
+    <s v="148.41"/>
+    <s v="142.02"/>
+    <s v="113.36"/>
+    <s v="61.98"/>
+    <s v="121.86"/>
+    <s v="127.64"/>
+    <s v="120.27"/>
+    <s v="93.92"/>
+    <s v="97.9"/>
+    <s v="144.41"/>
+    <s v="72.04"/>
+    <s v="60.93"/>
+    <s v="98.24"/>
+    <s v="102.58"/>
+    <s v="102.2"/>
+    <s v="87.8"/>
+    <s v="82.82"/>
+    <s v="83.42"/>
+    <s v="103.45"/>
+    <s v="50.94"/>
+    <s v="84.52"/>
+    <s v="64.18"/>
+    <s v="97.36"/>
+    <s v="68.44"/>
+    <s v="98.67"/>
+    <s v="83.4"/>
+    <s v="89.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="2025-02-01T00:00:00"/>
+    <n v="261648"/>
+    <x v="25"/>
+    <s v="0.07"/>
+    <s v="171190.25"/>
+    <s v="90457.75"/>
+    <s v="0.35"/>
+    <x v="25"/>
+    <s v="71.85"/>
+    <s v="57.59"/>
+    <s v="50.56"/>
+    <s v="122.23"/>
+    <s v="92.43"/>
+    <s v="121.38"/>
+    <s v="95.37"/>
+    <s v="64.55"/>
+    <s v="129.54"/>
+    <s v="91.65"/>
+    <s v="71.99"/>
+    <s v="85.41"/>
+    <s v="95.37"/>
+    <s v="127.53"/>
+    <s v="126.94"/>
+    <s v="71.12"/>
+    <s v="144.73"/>
+    <s v="55.32"/>
+    <s v="128.04"/>
+    <s v="131.68"/>
+    <s v="113.52"/>
+    <s v="55.21"/>
+    <s v="110.38"/>
+    <s v="137.7"/>
+    <s v="125.49"/>
+    <s v="81.88"/>
+    <s v="78.31"/>
+    <s v="60.34"/>
+    <s v="91.71"/>
+    <s v="115.2"/>
+    <s v="112.66"/>
+    <s v="88.72"/>
+    <s v="91.46"/>
+    <s v="125.14"/>
+    <s v="58.69"/>
+    <s v="128.0"/>
+    <s v="65.51"/>
+    <s v="86.61"/>
+    <s v="129.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2025-03-01T00:00:00"/>
+    <n v="320820"/>
+    <x v="26"/>
+    <s v="0.14"/>
+    <s v="208996.56"/>
+    <s v="111823.44"/>
+    <s v="0.35"/>
+    <x v="26"/>
+    <s v="132.16"/>
+    <s v="144.41"/>
+    <s v="128.07"/>
+    <s v="62.52"/>
+    <s v="109.71"/>
+    <s v="128.74"/>
+    <s v="144.8"/>
+    <s v="148.04"/>
+    <s v="71.86"/>
+    <s v="52.62"/>
+    <s v="76.68"/>
+    <s v="136.37"/>
+    <s v="68.33"/>
+    <s v="95.24"/>
+    <s v="82.87"/>
+    <s v="65.75"/>
+    <s v="57.59"/>
+    <s v="52.69"/>
+    <s v="127.06"/>
+    <s v="146.75"/>
+    <s v="107.2"/>
+    <s v="97.37"/>
+    <s v="98.21"/>
+    <s v="69.58"/>
+    <s v="56.0"/>
+    <s v="53.95"/>
+    <s v="116.1"/>
+    <s v="60.7"/>
+    <s v="144.22"/>
+    <s v="85.23"/>
+    <s v="62.52"/>
+    <s v="84.88"/>
+    <s v="94.58"/>
+    <s v="128.15"/>
+    <s v="113.42"/>
+    <s v="97.29"/>
+    <s v="95.69"/>
+    <s v="106.56"/>
+    <s v="120.01"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2025-04-01T00:00:00"/>
+    <n v="340823"/>
+    <x v="27"/>
+    <s v="0.27"/>
+    <s v="235245.75"/>
+    <s v="105577.25"/>
+    <s v="0.31"/>
+    <x v="27"/>
+    <s v="128.09"/>
+    <s v="132.25"/>
+    <s v="64.76"/>
+    <s v="85.2"/>
+    <s v="51.68"/>
+    <s v="65.09"/>
+    <s v="83.39"/>
+    <s v="116.5"/>
+    <s v="131.81"/>
+    <s v="141.98"/>
+    <s v="76.83"/>
+    <s v="140.04"/>
+    <s v="122.89"/>
+    <s v="85.24"/>
+    <s v="142.08"/>
+    <s v="78.3"/>
+    <s v="96.27"/>
+    <s v="125.46"/>
+    <s v="53.28"/>
+    <s v="114.64"/>
+    <s v="117.71"/>
+    <s v="118.57"/>
+    <s v="113.9"/>
+    <s v="85.7"/>
+    <s v="57.88"/>
+    <s v="129.1"/>
+    <s v="77.83"/>
+    <s v="124.44"/>
+    <s v="124.6"/>
+    <s v="107.15"/>
+    <s v="89.01"/>
+    <s v="69.35"/>
+    <s v="148.68"/>
+    <s v="107.72"/>
+    <s v="110.05"/>
+    <s v="107.5"/>
+    <s v="63.6"/>
+    <s v="149.02"/>
+    <s v="147.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="328000"/>
+    <x v="28"/>
+    <s v="0.11"/>
+    <s v="223367.03"/>
+    <s v="104632.97"/>
+    <s v="0.32"/>
+    <x v="28"/>
+    <s v="69.68"/>
+    <s v="148.55"/>
+    <s v="118.34"/>
+    <s v="65.16"/>
+    <s v="129.37"/>
+    <s v="68.51"/>
+    <s v="56.67"/>
+    <s v="149.13"/>
+    <s v="79.79"/>
+    <s v="120.51"/>
+    <s v="85.88"/>
+    <s v="68.55"/>
+    <s v="119.52"/>
+    <s v="111.56"/>
+    <s v="61.09"/>
+    <s v="57.8"/>
+    <s v="77.38"/>
+    <s v="102.25"/>
+    <s v="101.67"/>
+    <s v="56.06"/>
+    <s v="123.84"/>
+    <s v="134.12"/>
+    <s v="57.61"/>
+    <s v="97.43"/>
+    <s v="140.09"/>
+    <s v="80.37"/>
+    <s v="96.25"/>
+    <s v="93.69"/>
+    <s v="137.6"/>
+    <s v="102.88"/>
+    <s v="56.91"/>
+    <s v="78.16"/>
+    <s v="83.24"/>
+    <s v="131.08"/>
+    <s v="75.9"/>
+    <s v="94.91"/>
+    <s v="58.12"/>
+    <s v="54.96"/>
+    <s v="66.14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2025-06-01T00:00:00"/>
+    <n v="378654"/>
+    <x v="29"/>
+    <s v="0.26"/>
+    <s v="266104.9"/>
+    <s v="112549.1"/>
+    <s v="0.3"/>
+    <x v="29"/>
+    <s v="94.45"/>
+    <s v="143.54"/>
+    <s v="93.37"/>
+    <s v="69.34"/>
+    <s v="77.11"/>
+    <s v="140.43"/>
+    <s v="108.77"/>
+    <s v="64.46"/>
+    <s v="76.14"/>
+    <s v="116.0"/>
+    <s v="99.05"/>
+    <s v="125.26"/>
+    <s v="69.34"/>
+    <s v="149.87"/>
+    <s v="92.56"/>
+    <s v="127.75"/>
+    <s v="75.91"/>
+    <s v="125.65"/>
+    <s v="71.87"/>
+    <s v="89.49"/>
+    <s v="137.33"/>
+    <s v="143.41"/>
+    <s v="109.67"/>
+    <s v="135.63"/>
+    <s v="52.57"/>
+    <s v="72.68"/>
+    <s v="120.34"/>
+    <s v="95.55"/>
+    <s v="76.77"/>
+    <s v="50.46"/>
+    <s v="55.38"/>
+    <s v="120.6"/>
+    <s v="69.79"/>
+    <s v="56.71"/>
+    <s v="129.85"/>
+    <s v="50.8"/>
+    <s v="138.12"/>
+    <s v="86.55"/>
+    <s v="100.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2025-07-01T00:00:00"/>
+    <n v="128403"/>
+    <x v="30"/>
+    <s v="0.11"/>
+    <s v="83082.56"/>
+    <s v="45320.44"/>
+    <s v="0.35"/>
+    <x v="30"/>
+    <s v="127.07"/>
+    <s v="72.27"/>
+    <s v="76.54"/>
+    <s v="148.79"/>
+    <s v="58.3"/>
+    <s v="98.93"/>
+    <s v="103.71"/>
+    <s v="50.49"/>
+    <s v="75.56"/>
+    <s v="111.51"/>
+    <s v="51.67"/>
+    <s v="129.06"/>
+    <s v="90.2"/>
+    <s v="108.48"/>
+    <s v="133.79"/>
+    <s v="146.58"/>
+    <s v="73.88"/>
+    <s v="83.02"/>
+    <s v="79.41"/>
+    <s v="86.61"/>
+    <s v="147.3"/>
+    <s v="147.04"/>
+    <s v="142.81"/>
+    <s v="83.15"/>
+    <s v="98.55"/>
+    <s v="128.97"/>
+    <s v="131.49"/>
+    <s v="64.29"/>
+    <s v="74.5"/>
+    <s v="54.39"/>
+    <s v="130.98"/>
+    <s v="67.66"/>
+    <s v="114.34"/>
+    <s v="59.42"/>
+    <s v="73.62"/>
+    <s v="144.93"/>
+    <s v="105.63"/>
+    <s v="81.63"/>
+    <s v="85.74"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2025-08-01T00:00:00"/>
+    <n v="263229"/>
+    <x v="31"/>
+    <s v="0.27"/>
+    <s v="213538.6"/>
+    <s v="49690.4"/>
+    <s v="0.19"/>
+    <x v="31"/>
+    <s v="119.36"/>
+    <s v="101.86"/>
+    <s v="128.99"/>
+    <s v="72.48"/>
+    <s v="60.53"/>
+    <s v="141.9"/>
+    <s v="83.44"/>
+    <s v="119.47"/>
+    <s v="135.46"/>
+    <s v="93.38"/>
+    <s v="121.57"/>
+    <s v="135.4"/>
+    <s v="122.81"/>
+    <s v="116.39"/>
+    <s v="56.53"/>
+    <s v="125.21"/>
+    <s v="67.23"/>
+    <s v="122.69"/>
+    <s v="90.05"/>
+    <s v="143.0"/>
+    <s v="137.05"/>
+    <s v="92.42"/>
+    <s v="113.03"/>
+    <s v="96.95"/>
+    <s v="76.96"/>
+    <s v="126.15"/>
+    <s v="138.05"/>
+    <s v="149.97"/>
+    <s v="95.33"/>
+    <s v="69.89"/>
+    <s v="78.41"/>
+    <s v="59.79"/>
+    <s v="132.02"/>
+    <s v="110.11"/>
+    <s v="70.0"/>
+    <s v="121.86"/>
+    <s v="120.83"/>
+    <s v="120.85"/>
+    <s v="137.76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2025-09-01T00:00:00"/>
+    <n v="245944"/>
+    <x v="32"/>
+    <s v="0.24"/>
+    <s v="155938.31"/>
+    <s v="90005.69"/>
+    <s v="0.37"/>
+    <x v="32"/>
+    <s v="59.25"/>
+    <s v="91.44"/>
+    <s v="105.16"/>
+    <s v="107.79"/>
+    <s v="59.95"/>
+    <s v="52.75"/>
+    <s v="52.39"/>
+    <s v="133.76"/>
+    <s v="120.92"/>
+    <s v="98.04"/>
+    <s v="84.26"/>
+    <s v="124.9"/>
+    <s v="100.63"/>
+    <s v="73.47"/>
+    <s v="52.72"/>
+    <s v="75.04"/>
+    <s v="92.1"/>
+    <s v="91.11"/>
+    <s v="132.55"/>
+    <s v="77.68"/>
+    <s v="79.88"/>
+    <s v="147.02"/>
+    <s v="140.95"/>
+    <s v="129.9"/>
+    <s v="58.63"/>
+    <s v="75.83"/>
+    <s v="138.39"/>
+    <s v="96.33"/>
+    <s v="139.06"/>
+    <s v="111.17"/>
+    <s v="68.22"/>
+    <s v="98.09"/>
+    <s v="124.04"/>
+    <s v="142.87"/>
+    <s v="74.56"/>
+    <s v="119.99"/>
+    <s v="61.6"/>
+    <s v="68.26"/>
+    <s v="112.47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="2025-10-01T00:00:00"/>
+    <n v="395065"/>
+    <x v="33"/>
+    <s v="0.04"/>
+    <s v="264625.03"/>
+    <s v="130439.97"/>
+    <s v="0.33"/>
+    <x v="33"/>
+    <s v="99.41"/>
+    <s v="64.36"/>
+    <s v="87.33"/>
+    <s v="71.3"/>
+    <s v="70.53"/>
+    <s v="64.85"/>
+    <s v="53.28"/>
+    <s v="85.85"/>
+    <s v="112.38"/>
+    <s v="50.49"/>
+    <s v="90.44"/>
+    <s v="60.74"/>
+    <s v="71.18"/>
+    <s v="85.52"/>
+    <s v="80.02"/>
+    <s v="99.78"/>
+    <s v="101.52"/>
+    <s v="52.95"/>
+    <s v="54.49"/>
+    <s v="127.99"/>
+    <s v="109.89"/>
+    <s v="93.0"/>
+    <s v="142.91"/>
+    <s v="79.21"/>
+    <s v="116.94"/>
+    <s v="103.73"/>
+    <s v="136.13"/>
+    <s v="87.72"/>
+    <s v="120.93"/>
+    <s v="103.73"/>
+    <s v="120.01"/>
+    <s v="61.04"/>
+    <s v="111.55"/>
+    <s v="113.96"/>
+    <s v="141.04"/>
+    <s v="69.6"/>
+    <s v="89.17"/>
+    <s v="113.95"/>
+    <s v="141.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2025-11-01T00:00:00"/>
+    <n v="394809"/>
+    <x v="34"/>
+    <s v="0.11"/>
+    <s v="311648.84"/>
+    <s v="83160.16"/>
+    <s v="0.21"/>
+    <x v="34"/>
+    <s v="96.57"/>
+    <s v="50.54"/>
+    <s v="61.28"/>
+    <s v="69.78"/>
+    <s v="144.55"/>
+    <s v="138.76"/>
+    <s v="66.87"/>
+    <s v="114.76"/>
+    <s v="66.98"/>
+    <s v="117.18"/>
+    <s v="77.74"/>
+    <s v="83.12"/>
+    <s v="97.15"/>
+    <s v="113.15"/>
+    <s v="61.07"/>
+    <s v="143.66"/>
+    <s v="73.22"/>
+    <s v="120.24"/>
+    <s v="85.04"/>
+    <s v="72.33"/>
+    <s v="68.41"/>
+    <s v="131.35"/>
+    <s v="116.95"/>
+    <s v="103.72"/>
+    <s v="55.22"/>
+    <s v="93.01"/>
+    <s v="137.1"/>
+    <s v="93.99"/>
+    <s v="87.0"/>
+    <s v="62.03"/>
+    <s v="147.92"/>
+    <s v="99.53"/>
+    <s v="85.41"/>
+    <s v="134.72"/>
+    <s v="68.73"/>
+    <s v="51.05"/>
+    <s v="67.82"/>
+    <s v="113.82"/>
+    <s v="118.89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="2025-12-01T00:00:00"/>
+    <n v="380016"/>
+    <x v="35"/>
+    <s v="0.16"/>
+    <s v="288483.77"/>
+    <s v="91532.23"/>
+    <s v="0.24"/>
+    <x v="35"/>
+    <s v="77.7"/>
+    <s v="75.31"/>
+    <s v="121.04"/>
+    <s v="105.36"/>
+    <s v="55.16"/>
+    <s v="93.93"/>
+    <s v="74.64"/>
+    <s v="132.58"/>
+    <s v="63.05"/>
+    <s v="52.02"/>
+    <s v="78.13"/>
+    <s v="147.79"/>
+    <s v="60.09"/>
+    <s v="139.88"/>
+    <s v="146.23"/>
+    <s v="79.43"/>
+    <s v="57.28"/>
+    <s v="122.07"/>
+    <s v="120.19"/>
+    <s v="93.27"/>
+    <s v="112.56"/>
+    <s v="116.0"/>
+    <s v="97.74"/>
+    <s v="113.97"/>
+    <s v="96.14"/>
+    <s v="72.45"/>
+    <s v="123.27"/>
+    <s v="110.27"/>
+    <s v="101.32"/>
+    <s v="59.59"/>
+    <s v="143.19"/>
+    <s v="101.3"/>
+    <s v="71.81"/>
+    <s v="54.28"/>
+    <s v="122.68"/>
+    <s v="110.83"/>
+    <s v="130.7"/>
+    <s v="64.95"/>
+    <s v="58.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2026-01-01T00:00:00"/>
+    <n v="86194"/>
+    <x v="36"/>
+    <s v="0.18"/>
+    <s v="68705.15"/>
+    <s v="17488.85"/>
+    <s v="0.2"/>
+    <x v="36"/>
+    <s v="54.37"/>
+    <s v="107.92"/>
+    <s v="51.29"/>
+    <s v="56.81"/>
+    <s v="93.37"/>
+    <s v="135.96"/>
+    <s v="125.98"/>
+    <s v="104.11"/>
+    <s v="126.67"/>
+    <s v="126.29"/>
+    <s v="98.17"/>
+    <s v="116.99"/>
+    <s v="140.48"/>
+    <s v="65.57"/>
+    <s v="132.78"/>
+    <s v="85.37"/>
+    <s v="62.42"/>
+    <s v="79.06"/>
+    <s v="93.98"/>
+    <s v="110.15"/>
+    <s v="62.45"/>
+    <s v="148.21"/>
+    <s v="100.25"/>
+    <s v="132.65"/>
+    <s v="137.61"/>
+    <s v="102.71"/>
+    <s v="113.74"/>
+    <s v="101.11"/>
+    <s v="67.68"/>
+    <s v="136.46"/>
+    <s v="124.59"/>
+    <s v="143.75"/>
+    <s v="141.76"/>
+    <s v="121.42"/>
+    <s v="146.59"/>
+    <s v="57.29"/>
+    <s v="73.98"/>
+    <s v="83.47"/>
+    <s v="140.45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2026-02-01T00:00:00"/>
+    <n v="303667"/>
+    <x v="37"/>
+    <s v="0.12"/>
+    <s v="231806.57"/>
+    <s v="71860.43"/>
+    <s v="0.24"/>
+    <x v="37"/>
+    <s v="131.85"/>
+    <s v="95.75"/>
+    <s v="65.51"/>
+    <s v="68.8"/>
+    <s v="117.21"/>
+    <s v="84.56"/>
+    <s v="147.23"/>
+    <s v="87.13"/>
+    <s v="100.07"/>
+    <s v="133.94"/>
+    <s v="136.22"/>
+    <s v="54.68"/>
+    <s v="85.97"/>
+    <s v="70.55"/>
+    <s v="98.43"/>
+    <s v="128.06"/>
+    <s v="145.33"/>
+    <s v="52.14"/>
+    <s v="71.45"/>
+    <s v="133.78"/>
+    <s v="124.24"/>
+    <s v="73.31"/>
+    <s v="98.57"/>
+    <s v="87.54"/>
+    <s v="94.16"/>
+    <s v="122.61"/>
+    <s v="140.34"/>
+    <s v="142.11"/>
+    <s v="98.2"/>
+    <s v="84.07"/>
+    <s v="77.03"/>
+    <s v="142.29"/>
+    <s v="52.55"/>
+    <s v="143.04"/>
+    <s v="79.92"/>
+    <s v="128.96"/>
+    <s v="57.08"/>
+    <s v="88.8"/>
+    <s v="105.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2026-03-01T00:00:00"/>
+    <n v="396525"/>
+    <x v="38"/>
+    <s v="0.22"/>
+    <s v="263011.95"/>
+    <s v="133513.05"/>
+    <s v="0.34"/>
+    <x v="38"/>
+    <s v="64.21"/>
+    <s v="61.03"/>
+    <s v="103.93"/>
+    <s v="125.96"/>
+    <s v="69.05"/>
+    <s v="121.01"/>
+    <s v="131.0"/>
+    <s v="57.55"/>
+    <s v="135.43"/>
+    <s v="134.7"/>
+    <s v="100.85"/>
+    <s v="129.33"/>
+    <s v="53.8"/>
+    <s v="145.63"/>
+    <s v="110.89"/>
+    <s v="57.92"/>
+    <s v="98.74"/>
+    <s v="129.21"/>
+    <s v="128.08"/>
+    <s v="67.71"/>
+    <s v="79.08"/>
+    <s v="58.21"/>
+    <s v="88.92"/>
+    <s v="79.11"/>
+    <s v="138.64"/>
+    <s v="93.76"/>
+    <s v="63.76"/>
+    <s v="54.55"/>
+    <s v="133.77"/>
+    <s v="54.33"/>
+    <s v="70.16"/>
+    <s v="120.2"/>
+    <s v="131.7"/>
+    <s v="128.73"/>
+    <s v="97.7"/>
+    <s v="96.7"/>
+    <s v="89.4"/>
+    <s v="52.84"/>
+    <s v="109.69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2026-04-01T00:00:00"/>
+    <n v="77382"/>
+    <x v="39"/>
+    <s v="0.09"/>
+    <s v="58864.15"/>
+    <s v="18517.85"/>
+    <s v="0.24"/>
+    <x v="39"/>
+    <s v="113.39"/>
+    <s v="91.67"/>
+    <s v="108.46"/>
+    <s v="140.59"/>
+    <s v="87.89"/>
+    <s v="60.65"/>
+    <s v="79.68"/>
+    <s v="142.52"/>
+    <s v="132.97"/>
+    <s v="84.16"/>
+    <s v="107.62"/>
+    <s v="140.92"/>
+    <s v="78.33"/>
+    <s v="59.45"/>
+    <s v="104.17"/>
+    <s v="91.23"/>
+    <s v="108.3"/>
+    <s v="141.89"/>
+    <s v="141.66"/>
+    <s v="115.92"/>
+    <s v="81.44"/>
+    <s v="149.86"/>
+    <s v="126.93"/>
+    <s v="52.75"/>
+    <s v="89.19"/>
+    <s v="134.39"/>
+    <s v="51.97"/>
+    <s v="127.84"/>
+    <s v="96.14"/>
+    <s v="54.93"/>
+    <s v="136.8"/>
+    <s v="122.75"/>
+    <s v="62.9"/>
+    <s v="69.14"/>
+    <s v="148.83"/>
+    <s v="70.67"/>
+    <s v="102.63"/>
+    <s v="68.07"/>
+    <s v="130.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2026-05-01T00:00:00"/>
+    <n v="460471"/>
+    <x v="40"/>
+    <s v="0.15"/>
+    <s v="328926.75"/>
+    <s v="131544.25"/>
+    <s v="0.29"/>
+    <x v="40"/>
+    <s v="50.13"/>
+    <s v="110.02"/>
+    <s v="97.26"/>
+    <s v="110.36"/>
+    <s v="91.41"/>
+    <s v="99.6"/>
+    <s v="82.51"/>
+    <s v="101.31"/>
+    <s v="65.88"/>
+    <s v="72.16"/>
+    <s v="120.2"/>
+    <s v="95.46"/>
+    <s v="125.86"/>
+    <s v="131.99"/>
+    <s v="89.18"/>
+    <s v="120.45"/>
+    <s v="90.64"/>
+    <s v="62.79"/>
+    <s v="105.89"/>
+    <s v="107.43"/>
+    <s v="53.36"/>
+    <s v="125.04"/>
+    <s v="135.91"/>
+    <s v="104.95"/>
+    <s v="94.59"/>
+    <s v="64.4"/>
+    <s v="128.79"/>
+    <s v="89.07"/>
+    <s v="95.7"/>
+    <s v="141.76"/>
+    <s v="103.42"/>
+    <s v="111.42"/>
+    <s v="130.11"/>
+    <s v="72.6"/>
+    <s v="119.61"/>
+    <s v="125.31"/>
+    <s v="132.63"/>
+    <s v="57.33"/>
+    <s v="107.43"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <d v="2026-06-01T00:00:00"/>
+    <n v="491877"/>
+    <x v="41"/>
+    <s v="0.11"/>
+    <s v="387885.49"/>
+    <s v="103991.51"/>
+    <s v="0.21"/>
+    <x v="41"/>
+    <s v="124.75"/>
+    <s v="67.1"/>
+    <s v="65.68"/>
+    <s v="65.39"/>
+    <s v="97.31"/>
+    <s v="84.5"/>
+    <s v="59.45"/>
+    <s v="101.74"/>
+    <s v="139.0"/>
+    <s v="81.28"/>
+    <s v="146.49"/>
+    <s v="52.46"/>
+    <s v="64.14"/>
+    <s v="102.9"/>
+    <s v="95.86"/>
+    <s v="115.84"/>
+    <s v="101.66"/>
+    <s v="75.44"/>
+    <s v="124.99"/>
+    <s v="147.36"/>
+    <s v="129.94"/>
+    <s v="145.11"/>
+    <s v="113.26"/>
+    <s v="84.93"/>
+    <s v="130.85"/>
+    <s v="72.27"/>
+    <s v="113.23"/>
+    <s v="78.12"/>
+    <s v="62.81"/>
+    <s v="51.43"/>
+    <s v="85.05"/>
+    <s v="146.92"/>
+    <s v="143.99"/>
+    <s v="110.21"/>
+    <s v="129.44"/>
+    <s v="87.41"/>
+    <s v="114.82"/>
+    <s v="81.59"/>
+    <s v="86.54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2026-07-01T00:00:00"/>
+    <n v="67429"/>
+    <x v="42"/>
+    <s v="0.18"/>
+    <s v="47727.29"/>
+    <s v="19701.71"/>
+    <s v="0.29"/>
+    <x v="42"/>
+    <s v="105.31"/>
+    <s v="147.98"/>
+    <s v="64.47"/>
+    <s v="139.93"/>
+    <s v="128.58"/>
+    <s v="69.56"/>
+    <s v="132.89"/>
+    <s v="96.57"/>
+    <s v="69.4"/>
+    <s v="66.78"/>
+    <s v="77.8"/>
+    <s v="85.79"/>
+    <s v="83.55"/>
+    <s v="95.05"/>
+    <s v="129.04"/>
+    <s v="66.24"/>
+    <s v="107.73"/>
+    <s v="115.3"/>
+    <s v="127.57"/>
+    <s v="112.99"/>
+    <s v="61.79"/>
+    <s v="124.84"/>
+    <s v="135.25"/>
+    <s v="54.37"/>
+    <s v="146.57"/>
+    <s v="98.4"/>
+    <s v="118.05"/>
+    <s v="61.44"/>
+    <s v="96.02"/>
+    <s v="74.81"/>
+    <s v="73.01"/>
+    <s v="95.39"/>
+    <s v="130.18"/>
+    <s v="145.48"/>
+    <s v="72.14"/>
+    <s v="89.26"/>
+    <s v="77.56"/>
+    <s v="82.33"/>
+    <s v="91.41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2026-08-01T00:00:00"/>
+    <n v="91553"/>
+    <x v="43"/>
+    <s v="0.25"/>
+    <s v="75323.2"/>
+    <s v="16229.8"/>
+    <s v="0.18"/>
+    <x v="43"/>
+    <s v="114.47"/>
+    <s v="51.18"/>
+    <s v="80.91"/>
+    <s v="50.41"/>
+    <s v="130.55"/>
+    <s v="59.3"/>
+    <s v="106.61"/>
+    <s v="107.65"/>
+    <s v="53.69"/>
+    <s v="145.72"/>
+    <s v="109.45"/>
+    <s v="146.95"/>
+    <s v="107.14"/>
+    <s v="80.05"/>
+    <s v="125.97"/>
+    <s v="86.53"/>
+    <s v="135.78"/>
+    <s v="98.43"/>
+    <s v="149.6"/>
+    <s v="118.98"/>
+    <s v="56.93"/>
+    <s v="135.69"/>
+    <s v="59.76"/>
+    <s v="108.04"/>
+    <s v="64.0"/>
+    <s v="122.6"/>
+    <s v="53.03"/>
+    <s v="130.16"/>
+    <s v="84.91"/>
+    <s v="92.02"/>
+    <s v="142.08"/>
+    <s v="118.11"/>
+    <s v="70.94"/>
+    <s v="58.74"/>
+    <s v="135.64"/>
+    <s v="86.22"/>
+    <s v="112.44"/>
+    <s v="144.27"/>
+    <s v="101.09"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="2026-09-01T00:00:00"/>
+    <n v="348405"/>
+    <x v="44"/>
+    <s v="0.23"/>
+    <s v="266650.35"/>
+    <s v="81754.65"/>
+    <s v="0.23"/>
+    <x v="44"/>
+    <s v="81.91"/>
+    <s v="95.15"/>
+    <s v="114.84"/>
+    <s v="68.73"/>
+    <s v="130.76"/>
+    <s v="65.85"/>
+    <s v="71.68"/>
+    <s v="96.79"/>
+    <s v="127.33"/>
+    <s v="106.38"/>
+    <s v="147.89"/>
+    <s v="137.55"/>
+    <s v="60.7"/>
+    <s v="63.79"/>
+    <s v="136.62"/>
+    <s v="141.77"/>
+    <s v="79.85"/>
+    <s v="101.39"/>
+    <s v="61.74"/>
+    <s v="88.28"/>
+    <s v="118.28"/>
+    <s v="119.16"/>
+    <s v="112.05"/>
+    <s v="107.49"/>
+    <s v="140.5"/>
+    <s v="120.33"/>
+    <s v="64.36"/>
+    <s v="121.96"/>
+    <s v="119.83"/>
+    <s v="58.62"/>
+    <s v="88.62"/>
+    <s v="66.2"/>
+    <s v="134.43"/>
+    <s v="79.03"/>
+    <s v="121.01"/>
+    <s v="82.14"/>
+    <s v="75.51"/>
+    <s v="100.37"/>
+    <s v="88.61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="2026-10-01T00:00:00"/>
+    <n v="282791"/>
+    <x v="45"/>
+    <s v="0.18"/>
+    <s v="212950.2"/>
+    <s v="69840.8"/>
+    <s v="0.25"/>
+    <x v="45"/>
+    <s v="97.85"/>
+    <s v="80.99"/>
+    <s v="70.89"/>
+    <s v="54.75"/>
+    <s v="98.92"/>
+    <s v="53.49"/>
+    <s v="72.72"/>
+    <s v="92.42"/>
+    <s v="114.4"/>
+    <s v="130.65"/>
+    <s v="85.96"/>
+    <s v="85.54"/>
+    <s v="128.25"/>
+    <s v="79.02"/>
+    <s v="88.13"/>
+    <s v="104.97"/>
+    <s v="132.48"/>
+    <s v="68.69"/>
+    <s v="95.7"/>
+    <s v="51.69"/>
+    <s v="102.86"/>
+    <s v="143.45"/>
+    <s v="51.14"/>
+    <s v="100.39"/>
+    <s v="69.62"/>
+    <s v="118.38"/>
+    <s v="141.81"/>
+    <s v="110.93"/>
+    <s v="134.07"/>
+    <s v="54.09"/>
+    <s v="113.73"/>
+    <s v="95.8"/>
+    <s v="98.63"/>
+    <s v="75.91"/>
+    <s v="104.45"/>
+    <s v="130.26"/>
+    <s v="77.22"/>
+    <s v="63.45"/>
+    <s v="136.33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="2026-11-01T00:00:00"/>
+    <n v="152641"/>
+    <x v="46"/>
+    <s v="0.02"/>
+    <s v="104133.66"/>
+    <s v="48507.34"/>
+    <s v="0.32"/>
+    <x v="46"/>
+    <s v="128.01"/>
+    <s v="88.45"/>
+    <s v="103.35"/>
+    <s v="54.18"/>
+    <s v="84.75"/>
+    <s v="112.82"/>
+    <s v="113.03"/>
+    <s v="52.23"/>
+    <s v="138.71"/>
+    <s v="65.93"/>
+    <s v="105.0"/>
+    <s v="129.65"/>
+    <s v="52.81"/>
+    <s v="84.89"/>
+    <s v="82.56"/>
+    <s v="69.68"/>
+    <s v="145.98"/>
+    <s v="145.59"/>
+    <s v="136.84"/>
+    <s v="130.34"/>
+    <s v="108.99"/>
+    <s v="112.31"/>
+    <s v="61.08"/>
+    <s v="56.83"/>
+    <s v="122.91"/>
+    <s v="61.46"/>
+    <s v="146.59"/>
+    <s v="131.06"/>
+    <s v="149.5"/>
+    <s v="59.82"/>
+    <s v="91.66"/>
+    <s v="81.24"/>
+    <s v="127.01"/>
+    <s v="149.05"/>
+    <s v="119.41"/>
+    <s v="107.98"/>
+    <s v="89.7"/>
+    <s v="143.92"/>
+    <s v="137.69"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <d v="2026-12-01T00:00:00"/>
+    <n v="444812"/>
+    <x v="47"/>
+    <s v="0.13"/>
+    <s v="316258.31"/>
+    <s v="128553.69"/>
+    <s v="0.29"/>
+    <x v="47"/>
+    <s v="67.98"/>
+    <s v="75.12"/>
+    <s v="57.21"/>
+    <s v="57.18"/>
+    <s v="113.74"/>
+    <s v="148.9"/>
+    <s v="86.8"/>
+    <s v="87.55"/>
+    <s v="54.21"/>
+    <s v="61.23"/>
+    <s v="66.23"/>
+    <s v="86.97"/>
+    <s v="138.07"/>
+    <s v="112.31"/>
+    <s v="97.53"/>
+    <s v="149.49"/>
+    <s v="145.55"/>
+    <s v="100.84"/>
+    <s v="114.38"/>
+    <s v="96.1"/>
+    <s v="72.97"/>
+    <s v="118.67"/>
+    <s v="107.97"/>
+    <s v="125.95"/>
+    <s v="132.57"/>
+    <s v="61.81"/>
+    <s v="79.77"/>
+    <s v="70.01"/>
+    <s v="104.72"/>
+    <s v="90.68"/>
+    <s v="57.77"/>
+    <s v="145.76"/>
+    <s v="58.88"/>
+    <s v="65.75"/>
+    <s v="122.23"/>
+    <s v="108.7"/>
+    <s v="92.58"/>
+    <s v="66.59"/>
+    <s v="140.38"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2027-01-01T00:00:00"/>
+    <n v="235659"/>
+    <x v="13"/>
+    <s v="0.03"/>
+    <s v="182781.51"/>
+    <s v="52877.49"/>
+    <s v="0.22"/>
+    <x v="48"/>
+    <s v="50.95"/>
+    <s v="63.7"/>
+    <s v="100.6"/>
+    <s v="81.79"/>
+    <s v="118.74"/>
+    <s v="93.73"/>
+    <s v="82.26"/>
+    <s v="103.41"/>
+    <s v="116.18"/>
+    <s v="81.12"/>
+    <s v="63.04"/>
+    <s v="53.64"/>
+    <s v="89.83"/>
+    <s v="53.86"/>
+    <s v="62.1"/>
+    <s v="85.15"/>
+    <s v="85.56"/>
+    <s v="112.38"/>
+    <s v="107.43"/>
+    <s v="117.76"/>
+    <s v="118.79"/>
+    <s v="117.73"/>
+    <s v="101.39"/>
+    <s v="105.44"/>
+    <s v="118.62"/>
+    <s v="115.83"/>
+    <s v="73.1"/>
+    <s v="101.5"/>
+    <s v="144.57"/>
+    <s v="138.49"/>
+    <s v="131.78"/>
+    <s v="107.97"/>
+    <s v="78.27"/>
+    <s v="141.02"/>
+    <s v="84.93"/>
+    <s v="112.35"/>
+    <s v="93.14"/>
+    <s v="78.35"/>
+    <s v="64.92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <d v="2027-02-01T00:00:00"/>
+    <n v="188258"/>
+    <x v="48"/>
+    <s v="0.24"/>
+    <s v="118507.63"/>
+    <s v="69750.37"/>
+    <s v="0.37"/>
+    <x v="49"/>
+    <s v="50.89"/>
+    <s v="103.01"/>
+    <s v="115.26"/>
+    <s v="73.95"/>
+    <s v="141.0"/>
+    <s v="116.26"/>
+    <s v="51.19"/>
+    <s v="90.29"/>
+    <s v="71.11"/>
+    <s v="73.44"/>
+    <s v="115.71"/>
+    <s v="143.0"/>
+    <s v="110.73"/>
+    <s v="132.15"/>
+    <s v="138.87"/>
+    <s v="134.98"/>
+    <s v="126.27"/>
+    <s v="55.5"/>
+    <s v="52.08"/>
+    <s v="136.5"/>
+    <s v="130.44"/>
+    <s v="103.82"/>
+    <s v="79.04"/>
+    <s v="72.49"/>
+    <s v="68.22"/>
+    <s v="69.7"/>
+    <s v="143.87"/>
+    <s v="51.75"/>
+    <s v="131.42"/>
+    <s v="58.68"/>
+    <s v="56.37"/>
+    <s v="94.13"/>
+    <s v="83.81"/>
+    <s v="66.97"/>
+    <s v="99.49"/>
+    <s v="87.42"/>
+    <s v="78.78"/>
+    <s v="59.18"/>
+    <s v="77.53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2027-03-01T00:00:00"/>
+    <n v="480217"/>
+    <x v="49"/>
+    <s v="0.17"/>
+    <s v="372115.83"/>
+    <s v="108101.17"/>
+    <s v="0.23"/>
+    <x v="50"/>
+    <s v="149.79"/>
+    <s v="106.68"/>
+    <s v="145.54"/>
+    <s v="110.62"/>
+    <s v="112.73"/>
+    <s v="100.92"/>
+    <s v="116.67"/>
+    <s v="106.02"/>
+    <s v="120.16"/>
+    <s v="138.96"/>
+    <s v="95.69"/>
+    <s v="127.72"/>
+    <s v="136.6"/>
+    <s v="94.18"/>
+    <s v="76.61"/>
+    <s v="142.34"/>
+    <s v="148.55"/>
+    <s v="51.78"/>
+    <s v="58.6"/>
+    <s v="57.37"/>
+    <s v="133.04"/>
+    <s v="78.45"/>
+    <s v="144.48"/>
+    <s v="105.76"/>
+    <s v="128.93"/>
+    <s v="66.95"/>
+    <s v="125.89"/>
+    <s v="109.78"/>
+    <s v="90.98"/>
+    <s v="62.58"/>
+    <s v="127.34"/>
+    <s v="102.76"/>
+    <s v="110.97"/>
+    <s v="123.04"/>
+    <s v="136.29"/>
+    <s v="124.57"/>
+    <s v="115.63"/>
+    <s v="67.27"/>
+    <s v="95.95"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2027-04-01T00:00:00"/>
+    <n v="408933"/>
+    <x v="50"/>
+    <s v="0.27"/>
+    <s v="295704.72"/>
+    <s v="113228.28"/>
+    <s v="0.28"/>
+    <x v="51"/>
+    <s v="139.15"/>
+    <s v="127.08"/>
+    <s v="89.95"/>
+    <s v="118.84"/>
+    <s v="89.79"/>
+    <s v="139.4"/>
+    <s v="143.46"/>
+    <s v="74.15"/>
+    <s v="89.78"/>
+    <s v="108.33"/>
+    <s v="107.93"/>
+    <s v="145.98"/>
+    <s v="96.78"/>
+    <s v="81.31"/>
+    <s v="55.91"/>
+    <s v="90.92"/>
+    <s v="124.67"/>
+    <s v="73.9"/>
+    <s v="134.06"/>
+    <s v="97.52"/>
+    <s v="135.35"/>
+    <s v="115.98"/>
+    <s v="56.65"/>
+    <s v="84.96"/>
+    <s v="124.07"/>
+    <s v="131.5"/>
+    <s v="142.4"/>
+    <s v="134.44"/>
+    <s v="114.85"/>
+    <s v="115.18"/>
+    <s v="68.78"/>
+    <s v="88.68"/>
+    <s v="119.97"/>
+    <s v="76.51"/>
+    <s v="98.74"/>
+    <s v="137.44"/>
+    <s v="72.73"/>
+    <s v="145.87"/>
+    <s v="125.65"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2027-05-01T00:00:00"/>
+    <n v="347628"/>
+    <x v="51"/>
+    <s v="0.01"/>
+    <s v="291538.69"/>
+    <s v="56089.31"/>
+    <s v="0.16"/>
+    <x v="52"/>
+    <s v="51.07"/>
+    <s v="55.92"/>
+    <s v="95.41"/>
+    <s v="99.16"/>
+    <s v="109.35"/>
+    <s v="107.15"/>
+    <s v="99.28"/>
+    <s v="149.88"/>
+    <s v="123.59"/>
+    <s v="118.78"/>
+    <s v="82.98"/>
+    <s v="57.23"/>
+    <s v="135.21"/>
+    <s v="119.1"/>
+    <s v="145.66"/>
+    <s v="140.76"/>
+    <s v="70.76"/>
+    <s v="100.15"/>
+    <s v="92.2"/>
+    <s v="111.34"/>
+    <s v="111.39"/>
+    <s v="142.78"/>
+    <s v="61.59"/>
+    <s v="84.91"/>
+    <s v="87.81"/>
+    <s v="134.02"/>
+    <s v="77.45"/>
+    <s v="93.54"/>
+    <s v="51.54"/>
+    <s v="130.21"/>
+    <s v="117.15"/>
+    <s v="105.82"/>
+    <s v="88.72"/>
+    <s v="90.27"/>
+    <s v="103.44"/>
+    <s v="124.62"/>
+    <s v="82.81"/>
+    <s v="75.58"/>
+    <s v="114.11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2027-06-01T00:00:00"/>
+    <n v="163143"/>
+    <x v="52"/>
+    <s v="0.18"/>
+    <s v="103073.79"/>
+    <s v="60069.21"/>
+    <s v="0.37"/>
+    <x v="53"/>
+    <s v="138.45"/>
+    <s v="70.68"/>
+    <s v="93.78"/>
+    <s v="117.68"/>
+    <s v="103.5"/>
+    <s v="51.15"/>
+    <s v="148.71"/>
+    <s v="100.13"/>
+    <s v="134.27"/>
+    <s v="100.19"/>
+    <s v="147.77"/>
+    <s v="60.74"/>
+    <s v="135.67"/>
+    <s v="98.66"/>
+    <s v="136.48"/>
+    <s v="72.83"/>
+    <s v="106.59"/>
+    <s v="112.91"/>
+    <s v="147.66"/>
+    <s v="145.18"/>
+    <s v="82.72"/>
+    <s v="51.89"/>
+    <s v="146.94"/>
+    <s v="129.3"/>
+    <s v="75.43"/>
+    <s v="51.33"/>
+    <s v="97.71"/>
+    <s v="125.76"/>
+    <s v="61.1"/>
+    <s v="77.29"/>
+    <s v="65.0"/>
+    <s v="71.57"/>
+    <s v="115.0"/>
+    <s v="113.39"/>
+    <s v="65.92"/>
+    <s v="80.04"/>
+    <s v="78.73"/>
+    <s v="133.39"/>
+    <s v="114.52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="2027-07-01T00:00:00"/>
+    <n v="79802"/>
+    <x v="53"/>
+    <s v="0.11"/>
+    <s v="66883.8"/>
+    <s v="12918.2"/>
+    <s v="0.16"/>
+    <x v="54"/>
+    <s v="54.85"/>
+    <s v="67.46"/>
+    <s v="97.65"/>
+    <s v="65.87"/>
+    <s v="106.27"/>
+    <s v="147.75"/>
+    <s v="118.94"/>
+    <s v="131.7"/>
+    <s v="136.05"/>
+    <s v="64.68"/>
+    <s v="88.67"/>
+    <s v="83.53"/>
+    <s v="106.68"/>
+    <s v="106.84"/>
+    <s v="141.53"/>
+    <s v="129.5"/>
+    <s v="130.1"/>
+    <s v="114.02"/>
+    <s v="91.97"/>
+    <s v="86.73"/>
+    <s v="90.02"/>
+    <s v="50.39"/>
+    <s v="57.7"/>
+    <s v="74.78"/>
+    <s v="139.32"/>
+    <s v="97.3"/>
+    <s v="55.26"/>
+    <s v="147.14"/>
+    <s v="86.74"/>
+    <s v="82.4"/>
+    <s v="60.25"/>
+    <s v="135.96"/>
+    <s v="59.06"/>
+    <s v="65.82"/>
+    <s v="55.33"/>
+    <s v="94.22"/>
+    <s v="105.65"/>
+    <s v="86.83"/>
+    <s v="126.22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="2027-08-01T00:00:00"/>
+    <n v="216488"/>
+    <x v="54"/>
+    <s v="0.22"/>
+    <s v="180381.33"/>
+    <s v="36106.67"/>
+    <s v="0.17"/>
+    <x v="55"/>
+    <s v="103.73"/>
+    <s v="56.39"/>
+    <s v="111.7"/>
+    <s v="134.54"/>
+    <s v="91.95"/>
+    <s v="54.2"/>
+    <s v="54.41"/>
+    <s v="117.17"/>
+    <s v="109.62"/>
+    <s v="50.09"/>
+    <s v="88.61"/>
+    <s v="137.32"/>
+    <s v="124.64"/>
+    <s v="101.62"/>
+    <s v="89.07"/>
+    <s v="124.52"/>
+    <s v="62.97"/>
+    <s v="83.84"/>
+    <s v="60.89"/>
+    <s v="73.65"/>
+    <s v="137.49"/>
+    <s v="136.35"/>
+    <s v="88.34"/>
+    <s v="123.22"/>
+    <s v="68.61"/>
+    <s v="130.63"/>
+    <s v="57.03"/>
+    <s v="58.23"/>
+    <s v="88.41"/>
+    <s v="145.27"/>
+    <s v="133.06"/>
+    <s v="133.7"/>
+    <s v="87.6"/>
+    <s v="113.99"/>
+    <s v="91.63"/>
+    <s v="110.47"/>
+    <s v="65.17"/>
+    <s v="150.0"/>
+    <s v="114.89"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2027-09-01T00:00:00"/>
+    <n v="277155"/>
+    <x v="55"/>
+    <s v="0.16"/>
+    <s v="219805.25"/>
+    <s v="57349.75"/>
+    <s v="0.21"/>
+    <x v="56"/>
+    <s v="142.53"/>
+    <s v="50.86"/>
+    <s v="93.21"/>
+    <s v="88.2"/>
+    <s v="133.54"/>
+    <s v="87.57"/>
+    <s v="114.6"/>
+    <s v="64.88"/>
+    <s v="88.21"/>
+    <s v="94.76"/>
+    <s v="68.93"/>
+    <s v="67.0"/>
+    <s v="115.82"/>
+    <s v="90.7"/>
+    <s v="80.88"/>
+    <s v="93.21"/>
+    <s v="54.49"/>
+    <s v="94.6"/>
+    <s v="98.97"/>
+    <s v="135.2"/>
+    <s v="62.98"/>
+    <s v="144.31"/>
+    <s v="62.71"/>
+    <s v="61.47"/>
+    <s v="131.01"/>
+    <s v="128.7"/>
+    <s v="75.52"/>
+    <s v="83.16"/>
+    <s v="67.47"/>
+    <s v="138.42"/>
+    <s v="95.88"/>
+    <s v="51.03"/>
+    <s v="142.4"/>
+    <s v="81.26"/>
+    <s v="72.24"/>
+    <s v="73.77"/>
+    <s v="107.76"/>
+    <s v="133.7"/>
+    <s v="78.12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="2027-10-01T00:00:00"/>
+    <n v="452245"/>
+    <x v="56"/>
+    <s v="0.2"/>
+    <s v="370386.89"/>
+    <s v="81858.11"/>
+    <s v="0.18"/>
+    <x v="57"/>
+    <s v="61.21"/>
+    <s v="118.38"/>
+    <s v="60.56"/>
+    <s v="147.72"/>
+    <s v="70.11"/>
+    <s v="55.8"/>
+    <s v="98.72"/>
+    <s v="84.17"/>
+    <s v="139.87"/>
+    <s v="115.1"/>
+    <s v="135.73"/>
+    <s v="131.96"/>
+    <s v="113.57"/>
+    <s v="136.12"/>
+    <s v="63.17"/>
+    <s v="121.17"/>
+    <s v="107.81"/>
+    <s v="122.66"/>
+    <s v="138.93"/>
+    <s v="54.56"/>
+    <s v="59.68"/>
+    <s v="124.67"/>
+    <s v="137.63"/>
+    <s v="143.74"/>
+    <s v="99.64"/>
+    <s v="148.28"/>
+    <s v="53.99"/>
+    <s v="50.81"/>
+    <s v="107.19"/>
+    <s v="63.37"/>
+    <s v="138.6"/>
+    <s v="68.43"/>
+    <s v="60.4"/>
+    <s v="143.98"/>
+    <s v="115.51"/>
+    <s v="60.4"/>
+    <s v="82.11"/>
+    <s v="122.78"/>
+    <s v="87.38"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2027-11-01T00:00:00"/>
+    <n v="291665"/>
+    <x v="57"/>
+    <s v="0.01"/>
+    <s v="212344.4"/>
+    <s v="79320.6"/>
+    <s v="0.27"/>
+    <x v="58"/>
+    <s v="135.39"/>
+    <s v="92.01"/>
+    <s v="114.57"/>
+    <s v="50.99"/>
+    <s v="135.71"/>
+    <s v="50.77"/>
+    <s v="91.89"/>
+    <s v="149.48"/>
+    <s v="92.9"/>
+    <s v="56.3"/>
+    <s v="77.91"/>
+    <s v="114.56"/>
+    <s v="85.92"/>
+    <s v="59.28"/>
+    <s v="91.93"/>
+    <s v="119.16"/>
+    <s v="116.76"/>
+    <s v="119.13"/>
+    <s v="76.82"/>
+    <s v="81.22"/>
+    <s v="54.71"/>
+    <s v="138.88"/>
+    <s v="69.24"/>
+    <s v="93.7"/>
+    <s v="116.3"/>
+    <s v="144.5"/>
+    <s v="65.52"/>
+    <s v="139.72"/>
+    <s v="113.17"/>
+    <s v="146.5"/>
+    <s v="92.94"/>
+    <s v="147.62"/>
+    <s v="53.97"/>
+    <s v="93.02"/>
+    <s v="70.15"/>
+    <s v="121.67"/>
+    <s v="68.82"/>
+    <s v="68.03"/>
+    <s v="97.14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2027-12-01T00:00:00"/>
+    <n v="90050"/>
+    <x v="58"/>
+    <s v="0.03"/>
+    <s v="71246.98"/>
+    <s v="18803.02"/>
+    <s v="0.21"/>
+    <x v="59"/>
+    <s v="65.77"/>
+    <s v="103.09"/>
+    <s v="63.56"/>
+    <s v="98.77"/>
+    <s v="141.69"/>
+    <s v="143.64"/>
+    <s v="144.58"/>
+    <s v="142.07"/>
+    <s v="98.79"/>
+    <s v="80.89"/>
+    <s v="90.47"/>
+    <s v="142.17"/>
+    <s v="103.72"/>
+    <s v="115.4"/>
+    <s v="110.55"/>
+    <s v="118.5"/>
+    <s v="77.03"/>
+    <s v="108.03"/>
+    <s v="65.55"/>
+    <s v="70.45"/>
+    <s v="122.78"/>
+    <s v="94.36"/>
+    <s v="63.4"/>
+    <s v="136.04"/>
+    <s v="50.18"/>
+    <s v="77.97"/>
+    <s v="147.33"/>
+    <s v="133.71"/>
+    <s v="118.39"/>
+    <s v="138.66"/>
+    <s v="132.24"/>
+    <s v="134.51"/>
+    <s v="55.81"/>
+    <s v="81.66"/>
+    <s v="80.79"/>
+    <s v="97.89"/>
+    <s v="73.39"/>
+    <s v="119.37"/>
+    <s v="96.28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2028-01-01T00:00:00"/>
+    <n v="64290"/>
+    <x v="59"/>
+    <s v="0.1"/>
+    <s v="51665.28"/>
+    <s v="12624.72"/>
+    <s v="0.2"/>
+    <x v="60"/>
+    <s v="116.59"/>
+    <s v="130.68"/>
+    <s v="128.75"/>
+    <s v="135.18"/>
+    <s v="106.19"/>
+    <s v="135.55"/>
+    <s v="97.33"/>
+    <s v="83.43"/>
+    <s v="142.23"/>
+    <s v="122.34"/>
+    <s v="109.63"/>
+    <s v="139.47"/>
+    <s v="141.91"/>
+    <s v="123.45"/>
+    <s v="127.19"/>
+    <s v="90.15"/>
+    <s v="80.89"/>
+    <s v="110.09"/>
+    <s v="86.65"/>
+    <s v="117.3"/>
+    <s v="124.25"/>
+    <s v="59.7"/>
+    <s v="70.83"/>
+    <s v="118.35"/>
+    <s v="57.42"/>
+    <s v="101.31"/>
+    <s v="57.01"/>
+    <s v="64.91"/>
+    <s v="107.04"/>
+    <s v="66.61"/>
+    <s v="60.49"/>
+    <s v="119.06"/>
+    <s v="121.7"/>
+    <s v="121.34"/>
+    <s v="123.3"/>
+    <s v="115.62"/>
+    <s v="57.9"/>
+    <s v="86.39"/>
+    <s v="91.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2028-02-01T00:00:00"/>
+    <n v="63142"/>
+    <x v="60"/>
+    <s v="0.13"/>
+    <s v="45415.34"/>
+    <s v="17726.66"/>
+    <s v="0.28"/>
+    <x v="61"/>
+    <s v="65.43"/>
+    <s v="129.84"/>
+    <s v="131.16"/>
+    <s v="71.46"/>
+    <s v="136.69"/>
+    <s v="136.78"/>
+    <s v="80.59"/>
+    <s v="100.39"/>
+    <s v="78.59"/>
+    <s v="121.69"/>
+    <s v="69.08"/>
+    <s v="144.51"/>
+    <s v="103.76"/>
+    <s v="120.48"/>
+    <s v="146.54"/>
+    <s v="99.26"/>
+    <s v="123.82"/>
+    <s v="146.52"/>
+    <s v="98.76"/>
+    <s v="107.8"/>
+    <s v="146.26"/>
+    <s v="73.1"/>
+    <s v="96.68"/>
+    <s v="138.94"/>
+    <s v="133.68"/>
+    <s v="147.75"/>
+    <s v="95.13"/>
+    <s v="120.71"/>
+    <s v="100.71"/>
+    <s v="147.87"/>
+    <s v="80.97"/>
+    <s v="122.79"/>
+    <s v="145.34"/>
+    <s v="102.24"/>
+    <s v="120.65"/>
+    <s v="64.43"/>
+    <s v="140.23"/>
+    <s v="118.17"/>
+    <s v="108.76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2028-03-01T00:00:00"/>
+    <n v="129184"/>
+    <x v="61"/>
+    <s v="0.02"/>
+    <s v="104167.03"/>
+    <s v="25016.97"/>
+    <s v="0.19"/>
+    <x v="62"/>
+    <s v="82.43"/>
+    <s v="88.49"/>
+    <s v="80.63"/>
+    <s v="103.25"/>
+    <s v="119.94"/>
+    <s v="140.07"/>
+    <s v="93.37"/>
+    <s v="116.94"/>
+    <s v="74.41"/>
+    <s v="50.28"/>
+    <s v="114.48"/>
+    <s v="53.56"/>
+    <s v="71.94"/>
+    <s v="92.93"/>
+    <s v="104.83"/>
+    <s v="91.76"/>
+    <s v="147.29"/>
+    <s v="134.31"/>
+    <s v="76.54"/>
+    <s v="84.46"/>
+    <s v="148.2"/>
+    <s v="110.73"/>
+    <s v="147.0"/>
+    <s v="126.98"/>
+    <s v="53.19"/>
+    <s v="52.62"/>
+    <s v="141.06"/>
+    <s v="59.11"/>
+    <s v="108.22"/>
+    <s v="96.43"/>
+    <s v="130.94"/>
+    <s v="133.86"/>
+    <s v="113.44"/>
+    <s v="72.03"/>
+    <s v="58.23"/>
+    <s v="111.08"/>
+    <s v="136.32"/>
+    <s v="113.56"/>
+    <s v="92.73"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="2028-04-01T00:00:00"/>
+    <n v="340727"/>
+    <x v="62"/>
+    <s v="0.24"/>
+    <s v="257047.11"/>
+    <s v="83679.89"/>
+    <s v="0.25"/>
+    <x v="63"/>
+    <s v="112.94"/>
+    <s v="87.85"/>
+    <s v="62.63"/>
+    <s v="70.99"/>
+    <s v="130.21"/>
+    <s v="141.12"/>
+    <s v="83.0"/>
+    <s v="79.74"/>
+    <s v="133.09"/>
+    <s v="147.66"/>
+    <s v="54.66"/>
+    <s v="65.57"/>
+    <s v="94.09"/>
+    <s v="146.85"/>
+    <s v="110.78"/>
+    <s v="105.57"/>
+    <s v="81.12"/>
+    <s v="79.32"/>
+    <s v="144.62"/>
+    <s v="63.07"/>
+    <s v="124.93"/>
+    <s v="73.35"/>
+    <s v="76.2"/>
+    <s v="142.71"/>
+    <s v="80.03"/>
+    <s v="104.79"/>
+    <s v="90.76"/>
+    <s v="67.05"/>
+    <s v="64.08"/>
+    <s v="136.55"/>
+    <s v="114.86"/>
+    <s v="108.09"/>
+    <s v="105.99"/>
+    <s v="149.18"/>
+    <s v="50.65"/>
+    <s v="55.7"/>
+    <s v="110.19"/>
+    <s v="83.56"/>
+    <s v="88.21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2028-05-01T00:00:00"/>
+    <n v="135212"/>
+    <x v="15"/>
+    <s v="0.21"/>
+    <s v="106646.54"/>
+    <s v="28565.46"/>
+    <s v="0.21"/>
+    <x v="64"/>
+    <s v="148.05"/>
+    <s v="74.46"/>
+    <s v="100.26"/>
+    <s v="123.32"/>
+    <s v="117.53"/>
+    <s v="123.66"/>
+    <s v="93.54"/>
+    <s v="95.7"/>
+    <s v="118.34"/>
+    <s v="72.25"/>
+    <s v="79.84"/>
+    <s v="117.18"/>
+    <s v="115.81"/>
+    <s v="57.78"/>
+    <s v="69.43"/>
+    <s v="107.16"/>
+    <s v="122.85"/>
+    <s v="76.6"/>
+    <s v="85.75"/>
+    <s v="138.75"/>
+    <s v="118.22"/>
+    <s v="131.23"/>
+    <s v="143.91"/>
+    <s v="98.1"/>
+    <s v="142.29"/>
+    <s v="93.26"/>
+    <s v="132.23"/>
+    <s v="81.7"/>
+    <s v="128.06"/>
+    <s v="107.11"/>
+    <s v="132.56"/>
+    <s v="83.16"/>
+    <s v="131.61"/>
+    <s v="97.58"/>
+    <s v="113.26"/>
+    <s v="75.08"/>
+    <s v="128.0"/>
+    <s v="119.79"/>
+    <s v="56.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2028-06-01T00:00:00"/>
+    <n v="65575"/>
+    <x v="63"/>
+    <s v="0.09"/>
+    <s v="41120.76"/>
+    <s v="24454.24"/>
+    <s v="0.37"/>
+    <x v="65"/>
+    <s v="88.72"/>
+    <s v="96.15"/>
+    <s v="70.67"/>
+    <s v="122.59"/>
+    <s v="145.45"/>
+    <s v="75.18"/>
+    <s v="67.46"/>
+    <s v="115.88"/>
+    <s v="97.08"/>
+    <s v="148.92"/>
+    <s v="93.45"/>
+    <s v="115.37"/>
+    <s v="57.64"/>
+    <s v="90.52"/>
+    <s v="112.59"/>
+    <s v="50.08"/>
+    <s v="121.42"/>
+    <s v="88.94"/>
+    <s v="137.68"/>
+    <s v="73.22"/>
+    <s v="103.49"/>
+    <s v="81.17"/>
+    <s v="131.51"/>
+    <s v="107.16"/>
+    <s v="108.5"/>
+    <s v="131.4"/>
+    <s v="87.23"/>
+    <s v="73.98"/>
+    <s v="131.83"/>
+    <s v="90.51"/>
+    <s v="67.13"/>
+    <s v="140.51"/>
+    <s v="116.79"/>
+    <s v="99.91"/>
+    <s v="97.17"/>
+    <s v="139.13"/>
+    <s v="102.14"/>
+    <s v="89.65"/>
+    <s v="86.29"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2028-07-01T00:00:00"/>
+    <n v="104542"/>
+    <x v="64"/>
+    <s v="0.04"/>
+    <s v="64407.95"/>
+    <s v="40134.05"/>
+    <s v="0.38"/>
+    <x v="66"/>
+    <s v="120.25"/>
+    <s v="112.68"/>
+    <s v="125.86"/>
+    <s v="142.84"/>
+    <s v="91.04"/>
+    <s v="84.54"/>
+    <s v="100.17"/>
+    <s v="98.55"/>
+    <s v="131.41"/>
+    <s v="64.43"/>
+    <s v="66.65"/>
+    <s v="99.57"/>
+    <s v="98.19"/>
+    <s v="59.82"/>
+    <s v="119.62"/>
+    <s v="108.45"/>
+    <s v="62.87"/>
+    <s v="100.16"/>
+    <s v="98.68"/>
+    <s v="129.54"/>
+    <s v="59.38"/>
+    <s v="124.18"/>
+    <s v="63.41"/>
+    <s v="150.0"/>
+    <s v="62.8"/>
+    <s v="78.71"/>
+    <s v="88.57"/>
+    <s v="59.17"/>
+    <s v="139.89"/>
+    <s v="63.83"/>
+    <s v="55.93"/>
+    <s v="53.29"/>
+    <s v="126.92"/>
+    <s v="94.41"/>
+    <s v="106.23"/>
+    <s v="98.12"/>
+    <s v="93.04"/>
+    <s v="127.96"/>
+    <s v="124.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2028-08-01T00:00:00"/>
+    <n v="227947"/>
+    <x v="65"/>
+    <s v="0.18"/>
+    <s v="170130.08"/>
+    <s v="57816.92"/>
+    <s v="0.25"/>
+    <x v="67"/>
+    <s v="84.42"/>
+    <s v="65.1"/>
+    <s v="107.0"/>
+    <s v="135.41"/>
+    <s v="104.93"/>
+    <s v="124.33"/>
+    <s v="75.08"/>
+    <s v="99.42"/>
+    <s v="91.99"/>
+    <s v="83.18"/>
+    <s v="66.14"/>
+    <s v="136.53"/>
+    <s v="135.77"/>
+    <s v="97.51"/>
+    <s v="82.07"/>
+    <s v="53.99"/>
+    <s v="67.98"/>
+    <s v="138.1"/>
+    <s v="91.95"/>
+    <s v="59.43"/>
+    <s v="131.04"/>
+    <s v="86.69"/>
+    <s v="61.56"/>
+    <s v="111.04"/>
+    <s v="114.98"/>
+    <s v="145.52"/>
+    <s v="93.92"/>
+    <s v="88.88"/>
+    <s v="73.32"/>
+    <s v="52.79"/>
+    <s v="124.92"/>
+    <s v="128.66"/>
+    <s v="77.44"/>
+    <s v="131.93"/>
+    <s v="117.34"/>
+    <s v="112.81"/>
+    <s v="113.15"/>
+    <s v="120.06"/>
+    <s v="110.69"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2028-09-01T00:00:00"/>
+    <n v="68878"/>
+    <x v="66"/>
+    <s v="0.22"/>
+    <s v="42101.84"/>
+    <s v="26776.16"/>
+    <s v="0.39"/>
+    <x v="68"/>
+    <s v="70.13"/>
+    <s v="51.11"/>
+    <s v="67.82"/>
+    <s v="124.82"/>
+    <s v="143.07"/>
+    <s v="84.78"/>
+    <s v="130.82"/>
+    <s v="98.91"/>
+    <s v="83.29"/>
+    <s v="130.14"/>
+    <s v="139.26"/>
+    <s v="106.96"/>
+    <s v="94.47"/>
+    <s v="127.44"/>
+    <s v="89.56"/>
+    <s v="95.66"/>
+    <s v="77.79"/>
+    <s v="127.28"/>
+    <s v="142.24"/>
+    <s v="136.64"/>
+    <s v="149.62"/>
+    <s v="120.53"/>
+    <s v="64.88"/>
+    <s v="113.23"/>
+    <s v="137.34"/>
+    <s v="135.12"/>
+    <s v="119.44"/>
+    <s v="86.62"/>
+    <s v="70.15"/>
+    <s v="99.34"/>
+    <s v="99.58"/>
+    <s v="108.58"/>
+    <s v="76.65"/>
+    <s v="106.06"/>
+    <s v="64.43"/>
+    <s v="143.08"/>
+    <s v="90.46"/>
+    <s v="127.98"/>
+    <s v="126.63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2028-10-01T00:00:00"/>
+    <n v="428130"/>
+    <x v="67"/>
+    <s v="0.1"/>
+    <s v="318349.1"/>
+    <s v="109780.9"/>
+    <s v="0.26"/>
+    <x v="69"/>
+    <s v="112.95"/>
+    <s v="63.86"/>
+    <s v="100.23"/>
+    <s v="112.26"/>
+    <s v="88.65"/>
+    <s v="118.03"/>
+    <s v="67.29"/>
+    <s v="66.98"/>
+    <s v="64.24"/>
+    <s v="65.83"/>
+    <s v="113.64"/>
+    <s v="147.08"/>
+    <s v="112.28"/>
+    <s v="143.63"/>
+    <s v="79.41"/>
+    <s v="68.75"/>
+    <s v="78.94"/>
+    <s v="72.45"/>
+    <s v="71.95"/>
+    <s v="56.31"/>
+    <s v="134.67"/>
+    <s v="89.71"/>
+    <s v="73.8"/>
+    <s v="114.63"/>
+    <s v="82.79"/>
+    <s v="90.98"/>
+    <s v="95.58"/>
+    <s v="82.71"/>
+    <s v="147.21"/>
+    <s v="113.56"/>
+    <s v="82.89"/>
+    <s v="67.35"/>
+    <s v="61.26"/>
+    <s v="124.34"/>
+    <s v="52.7"/>
+    <s v="140.05"/>
+    <s v="93.2"/>
+    <s v="54.68"/>
+    <s v="119.48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2028-11-01T00:00:00"/>
+    <n v="152680"/>
+    <x v="68"/>
+    <s v="0.02"/>
+    <s v="114056.03"/>
+    <s v="38623.97"/>
+    <s v="0.25"/>
+    <x v="70"/>
+    <s v="80.66"/>
+    <s v="93.48"/>
+    <s v="79.3"/>
+    <s v="139.01"/>
+    <s v="135.81"/>
+    <s v="123.61"/>
+    <s v="116.77"/>
+    <s v="69.77"/>
+    <s v="146.92"/>
+    <s v="118.57"/>
+    <s v="90.16"/>
+    <s v="77.63"/>
+    <s v="131.31"/>
+    <s v="130.95"/>
+    <s v="64.04"/>
+    <s v="84.25"/>
+    <s v="69.79"/>
+    <s v="91.67"/>
+    <s v="124.95"/>
+    <s v="141.48"/>
+    <s v="84.88"/>
+    <s v="68.75"/>
+    <s v="112.56"/>
+    <s v="130.55"/>
+    <s v="70.88"/>
+    <s v="128.31"/>
+    <s v="107.78"/>
+    <s v="121.53"/>
+    <s v="51.78"/>
+    <s v="76.23"/>
+    <s v="106.32"/>
+    <s v="60.23"/>
+    <s v="93.43"/>
+    <s v="91.85"/>
+    <s v="64.98"/>
+    <s v="91.65"/>
+    <s v="83.7"/>
+    <s v="148.35"/>
+    <s v="119.85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2028-12-01T00:00:00"/>
+    <n v="68425"/>
+    <x v="69"/>
+    <s v="0.04"/>
+    <s v="41945.58"/>
+    <s v="26479.42"/>
+    <s v="0.39"/>
+    <x v="71"/>
+    <s v="87.17"/>
+    <s v="112.6"/>
+    <s v="79.94"/>
+    <s v="108.52"/>
+    <s v="86.26"/>
+    <s v="86.93"/>
+    <s v="123.96"/>
+    <s v="84.92"/>
+    <s v="121.22"/>
+    <s v="75.4"/>
+    <s v="130.17"/>
+    <s v="148.22"/>
+    <s v="92.14"/>
+    <s v="107.26"/>
+    <s v="59.3"/>
+    <s v="105.6"/>
+    <s v="60.64"/>
+    <s v="105.57"/>
+    <s v="78.36"/>
+    <s v="106.94"/>
+    <s v="120.2"/>
+    <s v="107.38"/>
+    <s v="61.84"/>
+    <s v="149.5"/>
+    <s v="110.48"/>
+    <s v="71.19"/>
+    <s v="148.17"/>
+    <s v="137.54"/>
+    <s v="72.89"/>
+    <s v="59.95"/>
+    <s v="61.98"/>
+    <s v="78.28"/>
+    <s v="60.93"/>
+    <s v="94.78"/>
+    <s v="149.15"/>
+    <s v="73.02"/>
+    <s v="55.56"/>
+    <s v="107.53"/>
+    <s v="111.11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2029-01-01T00:00:00"/>
+    <n v="418000"/>
+    <x v="70"/>
+    <s v="0.19"/>
+    <s v="299636.34"/>
+    <s v="118363.66"/>
+    <s v="0.28"/>
+    <x v="72"/>
+    <s v="131.95"/>
+    <s v="85.12"/>
+    <s v="92.37"/>
+    <s v="91.74"/>
+    <s v="116.09"/>
+    <s v="94.34"/>
+    <s v="73.58"/>
+    <s v="50.63"/>
+    <s v="120.04"/>
+    <s v="83.91"/>
+    <s v="125.16"/>
+    <s v="82.6"/>
+    <s v="83.48"/>
+    <s v="141.31"/>
+    <s v="103.11"/>
+    <s v="107.78"/>
+    <s v="116.98"/>
+    <s v="87.64"/>
+    <s v="137.71"/>
+    <s v="79.18"/>
+    <s v="115.75"/>
+    <s v="61.2"/>
+    <s v="94.33"/>
+    <s v="80.95"/>
+    <s v="69.01"/>
+    <s v="102.52"/>
+    <s v="87.37"/>
+    <s v="140.97"/>
+    <s v="67.93"/>
+    <s v="139.2"/>
+    <s v="122.79"/>
+    <s v="125.68"/>
+    <s v="91.12"/>
+    <s v="57.75"/>
+    <s v="66.5"/>
+    <s v="132.74"/>
+    <s v="50.13"/>
+    <s v="110.47"/>
+    <s v="149.49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <d v="2029-02-01T00:00:00"/>
+    <n v="86476"/>
+    <x v="71"/>
+    <s v="0.3"/>
+    <s v="66678.82"/>
+    <s v="19797.18"/>
+    <s v="0.23"/>
+    <x v="73"/>
+    <s v="143.29"/>
+    <s v="145.57"/>
+    <s v="125.34"/>
+    <s v="140.1"/>
+    <s v="145.64"/>
+    <s v="66.28"/>
+    <s v="67.35"/>
+    <s v="145.24"/>
+    <s v="79.59"/>
+    <s v="74.29"/>
+    <s v="124.93"/>
+    <s v="68.79"/>
+    <s v="127.93"/>
+    <s v="100.28"/>
+    <s v="135.22"/>
+    <s v="61.47"/>
+    <s v="129.04"/>
+    <s v="132.04"/>
+    <s v="57.85"/>
+    <s v="67.37"/>
+    <s v="87.32"/>
+    <s v="137.8"/>
+    <s v="119.66"/>
+    <s v="125.08"/>
+    <s v="132.73"/>
+    <s v="51.0"/>
+    <s v="100.87"/>
+    <s v="91.74"/>
+    <s v="90.55"/>
+    <s v="62.03"/>
+    <s v="142.09"/>
+    <s v="93.87"/>
+    <s v="124.97"/>
+    <s v="66.09"/>
+    <s v="58.86"/>
+    <s v="54.3"/>
+    <s v="57.45"/>
+    <s v="141.19"/>
+    <s v="147.94"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2029-03-01T00:00:00"/>
+    <n v="264050"/>
+    <x v="6"/>
+    <s v="0.29"/>
+    <s v="162173.04"/>
+    <s v="101876.96"/>
+    <s v="0.39"/>
+    <x v="74"/>
+    <s v="112.73"/>
+    <s v="124.46"/>
+    <s v="117.17"/>
+    <s v="121.14"/>
+    <s v="66.25"/>
+    <s v="117.6"/>
+    <s v="116.9"/>
+    <s v="98.07"/>
+    <s v="50.33"/>
+    <s v="65.89"/>
+    <s v="139.02"/>
+    <s v="111.53"/>
+    <s v="145.37"/>
+    <s v="75.7"/>
+    <s v="59.52"/>
+    <s v="93.66"/>
+    <s v="143.99"/>
+    <s v="89.0"/>
+    <s v="107.48"/>
+    <s v="135.82"/>
+    <s v="126.61"/>
+    <s v="115.37"/>
+    <s v="63.09"/>
+    <s v="87.01"/>
+    <s v="58.42"/>
+    <s v="142.19"/>
+    <s v="146.09"/>
+    <s v="73.49"/>
+    <s v="53.74"/>
+    <s v="69.73"/>
+    <s v="64.34"/>
+    <s v="64.21"/>
+    <s v="109.17"/>
+    <s v="132.53"/>
+    <s v="123.33"/>
+    <s v="119.17"/>
+    <s v="131.09"/>
+    <s v="148.02"/>
+    <s v="68.74"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="2029-04-01T00:00:00"/>
+    <n v="70213"/>
+    <x v="72"/>
+    <s v="0.11"/>
+    <s v="50953.16"/>
+    <s v="19259.84"/>
+    <s v="0.27"/>
+    <x v="75"/>
+    <s v="100.64"/>
+    <s v="121.42"/>
+    <s v="113.22"/>
+    <s v="88.57"/>
+    <s v="89.01"/>
+    <s v="104.17"/>
+    <s v="144.4"/>
+    <s v="127.3"/>
+    <s v="75.11"/>
+    <s v="95.94"/>
+    <s v="126.26"/>
+    <s v="148.11"/>
+    <s v="65.07"/>
+    <s v="103.35"/>
+    <s v="105.47"/>
+    <s v="83.72"/>
+    <s v="70.51"/>
+    <s v="124.49"/>
+    <s v="126.84"/>
+    <s v="61.69"/>
+    <s v="64.58"/>
+    <s v="66.03"/>
+    <s v="65.91"/>
+    <s v="120.89"/>
+    <s v="89.49"/>
+    <s v="79.84"/>
+    <s v="130.14"/>
+    <s v="91.83"/>
+    <s v="104.59"/>
+    <s v="104.76"/>
+    <s v="110.69"/>
+    <s v="148.71"/>
+    <s v="137.41"/>
+    <s v="50.91"/>
+    <s v="51.91"/>
+    <s v="75.37"/>
+    <s v="144.59"/>
+    <s v="137.46"/>
+    <s v="123.93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="2029-05-01T00:00:00"/>
+    <n v="138599"/>
+    <x v="73"/>
+    <s v="0.19"/>
+    <s v="86978.62"/>
+    <s v="51620.38"/>
+    <s v="0.37"/>
+    <x v="76"/>
+    <s v="62.59"/>
+    <s v="66.58"/>
+    <s v="127.21"/>
+    <s v="52.42"/>
+    <s v="136.26"/>
+    <s v="74.78"/>
+    <s v="74.12"/>
+    <s v="91.52"/>
+    <s v="122.61"/>
+    <s v="55.73"/>
+    <s v="78.4"/>
+    <s v="126.3"/>
+    <s v="86.74"/>
+    <s v="92.92"/>
+    <s v="74.89"/>
+    <s v="147.64"/>
+    <s v="148.82"/>
+    <s v="128.14"/>
+    <s v="87.0"/>
+    <s v="122.08"/>
+    <s v="140.51"/>
+    <s v="87.21"/>
+    <s v="146.51"/>
+    <s v="97.63"/>
+    <s v="131.03"/>
+    <s v="103.04"/>
+    <s v="74.71"/>
+    <s v="63.25"/>
+    <s v="92.43"/>
+    <s v="130.09"/>
+    <s v="115.55"/>
+    <s v="118.46"/>
+    <s v="142.72"/>
+    <s v="86.87"/>
+    <s v="132.44"/>
+    <s v="122.46"/>
+    <s v="75.88"/>
+    <s v="68.39"/>
+    <s v="93.59"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2029-06-01T00:00:00"/>
+    <n v="432363"/>
+    <x v="74"/>
+    <s v="0.16"/>
+    <s v="322641.21"/>
+    <s v="109721.79"/>
+    <s v="0.25"/>
+    <x v="77"/>
+    <s v="130.25"/>
+    <s v="137.0"/>
+    <s v="53.62"/>
+    <s v="76.51"/>
+    <s v="99.26"/>
+    <s v="146.94"/>
+    <s v="96.52"/>
+    <s v="77.85"/>
+    <s v="95.53"/>
+    <s v="130.25"/>
+    <s v="138.13"/>
+    <s v="70.57"/>
+    <s v="126.53"/>
+    <s v="57.7"/>
+    <s v="109.79"/>
+    <s v="131.42"/>
+    <s v="75.8"/>
+    <s v="107.41"/>
+    <s v="108.14"/>
+    <s v="115.71"/>
+    <s v="134.35"/>
+    <s v="95.85"/>
+    <s v="69.46"/>
+    <s v="68.19"/>
+    <s v="141.45"/>
+    <s v="64.28"/>
+    <s v="78.14"/>
+    <s v="129.54"/>
+    <s v="120.29"/>
+    <s v="134.95"/>
+    <s v="149.41"/>
+    <s v="139.12"/>
+    <s v="59.01"/>
+    <s v="81.19"/>
+    <s v="146.46"/>
+    <s v="77.12"/>
+    <s v="92.84"/>
+    <s v="134.84"/>
+    <s v="107.66"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2029-07-01T00:00:00"/>
+    <n v="221361"/>
+    <x v="58"/>
+    <s v="0.1"/>
+    <s v="180996.51"/>
+    <s v="40364.49"/>
+    <s v="0.18"/>
+    <x v="78"/>
+    <s v="54.67"/>
+    <s v="75.9"/>
+    <s v="73.25"/>
+    <s v="96.77"/>
+    <s v="142.19"/>
+    <s v="148.77"/>
+    <s v="139.97"/>
+    <s v="55.54"/>
+    <s v="80.53"/>
+    <s v="78.65"/>
+    <s v="139.52"/>
+    <s v="145.15"/>
+    <s v="131.24"/>
+    <s v="68.96"/>
+    <s v="66.11"/>
+    <s v="129.58"/>
+    <s v="90.4"/>
+    <s v="131.88"/>
+    <s v="134.01"/>
+    <s v="55.66"/>
+    <s v="85.02"/>
+    <s v="106.05"/>
+    <s v="58.67"/>
+    <s v="77.24"/>
+    <s v="94.69"/>
+    <s v="87.74"/>
+    <s v="144.92"/>
+    <s v="88.98"/>
+    <s v="75.16"/>
+    <s v="139.13"/>
+    <s v="65.83"/>
+    <s v="125.62"/>
+    <s v="100.87"/>
+    <s v="147.24"/>
+    <s v="143.34"/>
+    <s v="77.16"/>
+    <s v="134.12"/>
+    <s v="144.59"/>
+    <s v="142.58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2029-08-01T00:00:00"/>
+    <n v="369569"/>
+    <x v="37"/>
+    <s v="0.26"/>
+    <s v="274757.65"/>
+    <s v="94811.35"/>
+    <s v="0.26"/>
+    <x v="79"/>
+    <s v="52.2"/>
+    <s v="141.74"/>
+    <s v="144.18"/>
+    <s v="81.73"/>
+    <s v="124.62"/>
+    <s v="137.97"/>
+    <s v="119.88"/>
+    <s v="105.44"/>
+    <s v="94.83"/>
+    <s v="115.78"/>
+    <s v="124.54"/>
+    <s v="110.54"/>
+    <s v="139.14"/>
+    <s v="85.12"/>
+    <s v="69.68"/>
+    <s v="80.91"/>
+    <s v="117.55"/>
+    <s v="63.56"/>
+    <s v="124.82"/>
+    <s v="60.24"/>
+    <s v="88.86"/>
+    <s v="76.67"/>
+    <s v="69.23"/>
+    <s v="110.79"/>
+    <s v="66.53"/>
+    <s v="101.29"/>
+    <s v="144.07"/>
+    <s v="126.0"/>
+    <s v="76.49"/>
+    <s v="57.98"/>
+    <s v="116.78"/>
+    <s v="67.8"/>
+    <s v="75.81"/>
+    <s v="141.02"/>
+    <s v="146.96"/>
+    <s v="80.32"/>
+    <s v="149.17"/>
+    <s v="137.16"/>
+    <s v="129.97"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2029-09-01T00:00:00"/>
+    <n v="284796"/>
+    <x v="75"/>
+    <s v="0.07"/>
+    <s v="175122.57"/>
+    <s v="109673.43"/>
+    <s v="0.39"/>
+    <x v="80"/>
+    <s v="133.07"/>
+    <s v="142.57"/>
+    <s v="98.79"/>
+    <s v="127.05"/>
+    <s v="64.17"/>
+    <s v="77.51"/>
+    <s v="100.0"/>
+    <s v="56.28"/>
+    <s v="147.89"/>
+    <s v="136.77"/>
+    <s v="136.94"/>
+    <s v="139.64"/>
+    <s v="143.21"/>
+    <s v="61.55"/>
+    <s v="122.92"/>
+    <s v="75.28"/>
+    <s v="95.11"/>
+    <s v="143.2"/>
+    <s v="146.19"/>
+    <s v="141.54"/>
+    <s v="123.72"/>
+    <s v="113.46"/>
+    <s v="66.69"/>
+    <s v="143.45"/>
+    <s v="121.24"/>
+    <s v="90.12"/>
+    <s v="58.25"/>
+    <s v="135.86"/>
+    <s v="72.89"/>
+    <s v="67.38"/>
+    <s v="128.35"/>
+    <s v="69.15"/>
+    <s v="128.8"/>
+    <s v="107.35"/>
+    <s v="91.92"/>
+    <s v="143.56"/>
+    <s v="112.96"/>
+    <s v="74.36"/>
+    <s v="92.93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="2029-10-01T00:00:00"/>
+    <n v="222415"/>
+    <x v="76"/>
+    <s v="0.17"/>
+    <s v="165936.4"/>
+    <s v="56478.6"/>
+    <s v="0.25"/>
+    <x v="81"/>
+    <s v="115.07"/>
+    <s v="144.89"/>
+    <s v="97.54"/>
+    <s v="63.16"/>
+    <s v="59.75"/>
+    <s v="58.15"/>
+    <s v="115.94"/>
+    <s v="90.56"/>
+    <s v="118.55"/>
+    <s v="65.55"/>
+    <s v="64.58"/>
+    <s v="124.73"/>
+    <s v="62.02"/>
+    <s v="91.75"/>
+    <s v="73.42"/>
+    <s v="52.99"/>
+    <s v="62.35"/>
+    <s v="133.89"/>
+    <s v="85.71"/>
+    <s v="142.72"/>
+    <s v="91.57"/>
+    <s v="141.84"/>
+    <s v="95.87"/>
+    <s v="83.22"/>
+    <s v="73.5"/>
+    <s v="137.48"/>
+    <s v="137.51"/>
+    <s v="108.39"/>
+    <s v="125.05"/>
+    <s v="145.22"/>
+    <s v="105.06"/>
+    <s v="106.94"/>
+    <s v="50.63"/>
+    <s v="140.52"/>
+    <s v="106.38"/>
+    <s v="96.4"/>
+    <s v="117.18"/>
+    <s v="83.5"/>
+    <s v="92.43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2029-11-01T00:00:00"/>
+    <n v="109376"/>
+    <x v="77"/>
+    <s v="0.1"/>
+    <s v="89094.16"/>
+    <s v="20281.84"/>
+    <s v="0.19"/>
+    <x v="82"/>
+    <s v="89.57"/>
+    <s v="136.14"/>
+    <s v="110.96"/>
+    <s v="108.15"/>
+    <s v="104.38"/>
+    <s v="122.53"/>
+    <s v="147.95"/>
+    <s v="100.82"/>
+    <s v="74.15"/>
+    <s v="86.84"/>
+    <s v="105.5"/>
+    <s v="133.94"/>
+    <s v="144.31"/>
+    <s v="139.57"/>
+    <s v="133.15"/>
+    <s v="63.84"/>
+    <s v="71.71"/>
+    <s v="80.66"/>
+    <s v="99.77"/>
+    <s v="142.83"/>
+    <s v="118.32"/>
+    <s v="92.07"/>
+    <s v="66.09"/>
+    <s v="136.73"/>
+    <s v="68.07"/>
+    <s v="141.51"/>
+    <s v="148.23"/>
+    <s v="66.58"/>
+    <s v="69.72"/>
+    <s v="88.41"/>
+    <s v="118.41"/>
+    <s v="94.06"/>
+    <s v="81.17"/>
+    <s v="62.44"/>
+    <s v="88.11"/>
+    <s v="61.72"/>
+    <s v="139.17"/>
+    <s v="136.11"/>
+    <s v="51.35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="2029-12-01T00:00:00"/>
+    <n v="274423"/>
+    <x v="78"/>
+    <s v="0.24"/>
+    <s v="219305.32"/>
+    <s v="55117.68"/>
+    <s v="0.2"/>
+    <x v="83"/>
+    <s v="65.01"/>
+    <s v="92.03"/>
+    <s v="55.3"/>
+    <s v="142.19"/>
+    <s v="100.3"/>
+    <s v="56.91"/>
+    <s v="109.84"/>
+    <s v="141.53"/>
+    <s v="96.33"/>
+    <s v="103.01"/>
+    <s v="54.27"/>
+    <s v="99.33"/>
+    <s v="81.99"/>
+    <s v="111.01"/>
+    <s v="88.19"/>
+    <s v="103.07"/>
+    <s v="67.52"/>
+    <s v="149.55"/>
+    <s v="55.25"/>
+    <s v="65.56"/>
+    <s v="67.36"/>
+    <s v="84.62"/>
+    <s v="149.13"/>
+    <s v="85.3"/>
+    <s v="61.51"/>
+    <s v="97.18"/>
+    <s v="74.56"/>
+    <s v="118.1"/>
+    <s v="127.74"/>
+    <s v="147.52"/>
+    <s v="74.69"/>
+    <s v="83.96"/>
+    <s v="68.28"/>
+    <s v="99.33"/>
+    <s v="66.52"/>
+    <s v="66.18"/>
+    <s v="75.86"/>
+    <s v="55.78"/>
+    <s v="83.35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2030-01-01T00:00:00"/>
+    <n v="419655"/>
+    <x v="79"/>
+    <s v="0.07"/>
+    <s v="344544.56"/>
+    <s v="75110.44"/>
+    <s v="0.18"/>
+    <x v="84"/>
+    <s v="51.51"/>
+    <s v="118.64"/>
+    <s v="145.26"/>
+    <s v="132.7"/>
+    <s v="139.38"/>
+    <s v="141.71"/>
+    <s v="93.39"/>
+    <s v="115.43"/>
+    <s v="115.25"/>
+    <s v="119.26"/>
+    <s v="143.23"/>
+    <s v="79.98"/>
+    <s v="110.58"/>
+    <s v="112.88"/>
+    <s v="67.97"/>
+    <s v="110.6"/>
+    <s v="55.66"/>
+    <s v="142.74"/>
+    <s v="95.11"/>
+    <s v="83.75"/>
+    <s v="131.83"/>
+    <s v="54.42"/>
+    <s v="128.54"/>
+    <s v="91.21"/>
+    <s v="79.48"/>
+    <s v="123.53"/>
+    <s v="119.23"/>
+    <s v="143.94"/>
+    <s v="51.56"/>
+    <s v="149.94"/>
+    <s v="133.12"/>
+    <s v="147.75"/>
+    <s v="55.38"/>
+    <s v="131.75"/>
+    <s v="126.97"/>
+    <s v="134.8"/>
+    <s v="82.26"/>
+    <s v="99.92"/>
+    <s v="52.07"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2030-02-01T00:00:00"/>
+    <n v="176752"/>
+    <x v="80"/>
+    <s v="0.25"/>
+    <s v="137351.6"/>
+    <s v="39400.4"/>
+    <s v="0.22"/>
+    <x v="85"/>
+    <s v="56.47"/>
+    <s v="79.46"/>
+    <s v="106.86"/>
+    <s v="75.43"/>
+    <s v="131.14"/>
+    <s v="116.49"/>
+    <s v="50.43"/>
+    <s v="60.09"/>
+    <s v="82.49"/>
+    <s v="95.54"/>
+    <s v="114.83"/>
+    <s v="89.21"/>
+    <s v="91.73"/>
+    <s v="143.72"/>
+    <s v="89.98"/>
+    <s v="73.4"/>
+    <s v="92.79"/>
+    <s v="92.67"/>
+    <s v="95.22"/>
+    <s v="97.3"/>
+    <s v="91.11"/>
+    <s v="53.16"/>
+    <s v="83.2"/>
+    <s v="58.47"/>
+    <s v="80.46"/>
+    <s v="143.88"/>
+    <s v="78.43"/>
+    <s v="57.23"/>
+    <s v="61.01"/>
+    <s v="148.33"/>
+    <s v="53.28"/>
+    <s v="110.08"/>
+    <s v="124.65"/>
+    <s v="149.91"/>
+    <s v="87.93"/>
+    <s v="116.99"/>
+    <s v="86.25"/>
+    <s v="77.62"/>
+    <s v="75.76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="2030-03-01T00:00:00"/>
+    <n v="200088"/>
+    <x v="81"/>
+    <s v="0.05"/>
+    <s v="145396.66"/>
+    <s v="54691.34"/>
+    <s v="0.27"/>
+    <x v="86"/>
+    <s v="86.79"/>
+    <s v="121.01"/>
+    <s v="77.09"/>
+    <s v="87.11"/>
+    <s v="59.79"/>
+    <s v="85.48"/>
+    <s v="114.11"/>
+    <s v="126.85"/>
+    <s v="141.95"/>
+    <s v="61.78"/>
+    <s v="124.28"/>
+    <s v="51.16"/>
+    <s v="139.15"/>
+    <s v="102.74"/>
+    <s v="72.07"/>
+    <s v="96.68"/>
+    <s v="148.3"/>
+    <s v="83.28"/>
+    <s v="80.57"/>
+    <s v="98.05"/>
+    <s v="53.9"/>
+    <s v="114.35"/>
+    <s v="84.18"/>
+    <s v="121.46"/>
+    <s v="56.02"/>
+    <s v="135.24"/>
+    <s v="136.42"/>
+    <s v="99.36"/>
+    <s v="149.67"/>
+    <s v="131.83"/>
+    <s v="147.79"/>
+    <s v="131.68"/>
+    <s v="53.72"/>
+    <s v="137.62"/>
+    <s v="106.34"/>
+    <s v="110.53"/>
+    <s v="147.63"/>
+    <s v="112.85"/>
+    <s v="51.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="2030-04-01T00:00:00"/>
+    <n v="186588"/>
+    <x v="82"/>
+    <s v="0.16"/>
+    <s v="151480.84"/>
+    <s v="35107.16"/>
+    <s v="0.19"/>
+    <x v="87"/>
+    <s v="60.99"/>
+    <s v="80.15"/>
+    <s v="78.55"/>
+    <s v="117.12"/>
+    <s v="129.08"/>
+    <s v="130.26"/>
+    <s v="96.89"/>
+    <s v="83.84"/>
+    <s v="70.39"/>
+    <s v="124.64"/>
+    <s v="100.38"/>
+    <s v="148.24"/>
+    <s v="59.51"/>
+    <s v="77.73"/>
+    <s v="128.4"/>
+    <s v="71.95"/>
+    <s v="75.92"/>
+    <s v="105.77"/>
+    <s v="78.06"/>
+    <s v="68.63"/>
+    <s v="103.47"/>
+    <s v="87.93"/>
+    <s v="149.81"/>
+    <s v="136.62"/>
+    <s v="130.92"/>
+    <s v="107.07"/>
+    <s v="54.52"/>
+    <s v="84.03"/>
+    <s v="128.61"/>
+    <s v="69.32"/>
+    <s v="142.73"/>
+    <s v="143.85"/>
+    <s v="51.63"/>
+    <s v="89.41"/>
+    <s v="127.36"/>
+    <s v="92.53"/>
+    <s v="125.53"/>
+    <s v="132.99"/>
+    <s v="81.42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2030-05-01T00:00:00"/>
+    <n v="135632"/>
+    <x v="83"/>
+    <s v="0.02"/>
+    <s v="106304.82"/>
+    <s v="29327.18"/>
+    <s v="0.22"/>
+    <x v="88"/>
+    <s v="116.79"/>
+    <s v="59.13"/>
+    <s v="124.42"/>
+    <s v="116.07"/>
+    <s v="126.94"/>
+    <s v="100.22"/>
+    <s v="118.35"/>
+    <s v="54.39"/>
+    <s v="89.77"/>
+    <s v="125.25"/>
+    <s v="70.77"/>
+    <s v="52.21"/>
+    <s v="137.61"/>
+    <s v="130.81"/>
+    <s v="131.96"/>
+    <s v="67.24"/>
+    <s v="126.44"/>
+    <s v="73.7"/>
+    <s v="102.6"/>
+    <s v="68.15"/>
+    <s v="93.47"/>
+    <s v="137.13"/>
+    <s v="78.68"/>
+    <s v="55.12"/>
+    <s v="81.48"/>
+    <s v="104.76"/>
+    <s v="85.7"/>
+    <s v="86.27"/>
+    <s v="112.55"/>
+    <s v="138.74"/>
+    <s v="132.41"/>
+    <s v="105.57"/>
+    <s v="129.16"/>
+    <s v="87.12"/>
+    <s v="107.78"/>
+    <s v="85.93"/>
+    <s v="92.52"/>
+    <s v="92.86"/>
+    <s v="59.86"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2030-06-01T00:00:00"/>
+    <n v="100166"/>
+    <x v="84"/>
+    <s v="0.07"/>
+    <s v="67624.87"/>
+    <s v="32541.13"/>
+    <s v="0.32"/>
+    <x v="89"/>
+    <s v="74.11"/>
+    <s v="54.46"/>
+    <s v="99.49"/>
+    <s v="130.94"/>
+    <s v="63.77"/>
+    <s v="56.61"/>
+    <s v="128.43"/>
+    <s v="87.52"/>
+    <s v="68.52"/>
+    <s v="69.58"/>
+    <s v="142.06"/>
+    <s v="54.21"/>
+    <s v="56.93"/>
+    <s v="120.39"/>
+    <s v="121.42"/>
+    <s v="146.11"/>
+    <s v="132.37"/>
+    <s v="69.5"/>
+    <s v="79.96"/>
+    <s v="83.39"/>
+    <s v="111.82"/>
+    <s v="81.7"/>
+    <s v="65.76"/>
+    <s v="148.12"/>
+    <s v="58.77"/>
+    <s v="50.91"/>
+    <s v="63.8"/>
+    <s v="110.11"/>
+    <s v="121.71"/>
+    <s v="82.73"/>
+    <s v="72.29"/>
+    <s v="57.27"/>
+    <s v="145.63"/>
+    <s v="93.89"/>
+    <s v="99.52"/>
+    <s v="65.24"/>
+    <s v="90.71"/>
+    <s v="81.24"/>
+    <s v="134.14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2030-07-01T00:00:00"/>
+    <n v="159346"/>
+    <x v="85"/>
+    <s v="0.22"/>
+    <s v="121267.18"/>
+    <s v="38078.82"/>
+    <s v="0.24"/>
+    <x v="90"/>
+    <s v="71.48"/>
+    <s v="109.57"/>
+    <s v="135.2"/>
+    <s v="86.42"/>
+    <s v="138.71"/>
+    <s v="127.89"/>
+    <s v="102.65"/>
+    <s v="118.77"/>
+    <s v="134.27"/>
+    <s v="111.59"/>
+    <s v="110.41"/>
+    <s v="114.48"/>
+    <s v="52.24"/>
+    <s v="127.74"/>
+    <s v="68.81"/>
+    <s v="104.01"/>
+    <s v="116.41"/>
+    <s v="103.51"/>
+    <s v="108.88"/>
+    <s v="54.41"/>
+    <s v="59.63"/>
+    <s v="83.82"/>
+    <s v="60.55"/>
+    <s v="118.86"/>
+    <s v="73.93"/>
+    <s v="79.47"/>
+    <s v="104.73"/>
+    <s v="52.58"/>
+    <s v="90.86"/>
+    <s v="82.26"/>
+    <s v="95.64"/>
+    <s v="135.23"/>
+    <s v="64.53"/>
+    <s v="95.92"/>
+    <s v="53.18"/>
+    <s v="82.46"/>
+    <s v="95.6"/>
+    <s v="59.41"/>
+    <s v="139.17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2030-08-01T00:00:00"/>
+    <n v="440879"/>
+    <x v="86"/>
+    <s v="0.29"/>
+    <s v="274667.15"/>
+    <s v="166211.85"/>
+    <s v="0.38"/>
+    <x v="91"/>
+    <s v="85.98"/>
+    <s v="144.54"/>
+    <s v="126.83"/>
+    <s v="60.02"/>
+    <s v="76.09"/>
+    <s v="77.79"/>
+    <s v="82.92"/>
+    <s v="59.42"/>
+    <s v="84.49"/>
+    <s v="129.91"/>
+    <s v="79.17"/>
+    <s v="114.96"/>
+    <s v="149.18"/>
+    <s v="130.96"/>
+    <s v="52.46"/>
+    <s v="132.35"/>
+    <s v="84.46"/>
+    <s v="65.02"/>
+    <s v="88.5"/>
+    <s v="71.24"/>
+    <s v="133.66"/>
+    <s v="67.51"/>
+    <s v="134.22"/>
+    <s v="95.62"/>
+    <s v="67.69"/>
+    <s v="80.91"/>
+    <s v="59.95"/>
+    <s v="55.23"/>
+    <s v="129.94"/>
+    <s v="75.76"/>
+    <s v="50.04"/>
+    <s v="68.66"/>
+    <s v="122.8"/>
+    <s v="95.92"/>
+    <s v="129.89"/>
+    <s v="77.3"/>
+    <s v="65.15"/>
+    <s v="71.53"/>
+    <s v="86.47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2030-09-01T00:00:00"/>
+    <n v="453134"/>
+    <x v="87"/>
+    <s v="0.15"/>
+    <s v="339107.7"/>
+    <s v="114026.3"/>
+    <s v="0.25"/>
+    <x v="92"/>
+    <s v="124.73"/>
+    <s v="109.85"/>
+    <s v="107.95"/>
+    <s v="75.06"/>
+    <s v="104.48"/>
+    <s v="132.23"/>
+    <s v="132.86"/>
+    <s v="136.67"/>
+    <s v="87.23"/>
+    <s v="136.39"/>
+    <s v="97.11"/>
+    <s v="116.55"/>
+    <s v="101.35"/>
+    <s v="127.49"/>
+    <s v="139.24"/>
+    <s v="125.49"/>
+    <s v="133.35"/>
+    <s v="90.06"/>
+    <s v="129.88"/>
+    <s v="131.39"/>
+    <s v="114.15"/>
+    <s v="72.87"/>
+    <s v="62.49"/>
+    <s v="92.02"/>
+    <s v="124.58"/>
+    <s v="67.84"/>
+    <s v="92.57"/>
+    <s v="71.46"/>
+    <s v="101.69"/>
+    <s v="84.15"/>
+    <s v="70.94"/>
+    <s v="89.48"/>
+    <s v="95.94"/>
+    <s v="51.69"/>
+    <s v="108.44"/>
+    <s v="83.17"/>
+    <s v="105.76"/>
+    <s v="106.64"/>
+    <s v="129.06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2030-10-01T00:00:00"/>
+    <n v="293183"/>
+    <x v="88"/>
+    <s v="0.28"/>
+    <s v="188797.17"/>
+    <s v="104385.83"/>
+    <s v="0.36"/>
+    <x v="93"/>
+    <s v="101.78"/>
+    <s v="132.69"/>
+    <s v="117.49"/>
+    <s v="148.39"/>
+    <s v="53.77"/>
+    <s v="55.78"/>
+    <s v="63.46"/>
+    <s v="80.37"/>
+    <s v="143.55"/>
+    <s v="122.31"/>
+    <s v="149.0"/>
+    <s v="93.56"/>
+    <s v="131.03"/>
+    <s v="63.3"/>
+    <s v="81.68"/>
+    <s v="105.95"/>
+    <s v="125.41"/>
+    <s v="148.0"/>
+    <s v="59.63"/>
+    <s v="118.4"/>
+    <s v="135.48"/>
+    <s v="104.53"/>
+    <s v="57.2"/>
+    <s v="106.99"/>
+    <s v="65.59"/>
+    <s v="112.08"/>
+    <s v="142.81"/>
+    <s v="70.42"/>
+    <s v="81.09"/>
+    <s v="73.75"/>
+    <s v="143.07"/>
+    <s v="129.62"/>
+    <s v="125.13"/>
+    <s v="114.18"/>
+    <s v="146.79"/>
+    <s v="144.1"/>
+    <s v="144.79"/>
+    <s v="78.58"/>
+    <s v="55.65"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="2030-11-01T00:00:00"/>
+    <n v="391115"/>
+    <x v="89"/>
+    <s v="0.07"/>
+    <s v="275824.47"/>
+    <s v="115290.53"/>
+    <s v="0.29"/>
+    <x v="94"/>
+    <s v="142.46"/>
+    <s v="95.95"/>
+    <s v="77.99"/>
+    <s v="106.65"/>
+    <s v="86.85"/>
+    <s v="118.54"/>
+    <s v="147.47"/>
+    <s v="137.72"/>
+    <s v="107.7"/>
+    <s v="143.33"/>
+    <s v="95.61"/>
+    <s v="95.72"/>
+    <s v="89.66"/>
+    <s v="130.87"/>
+    <s v="61.97"/>
+    <s v="147.9"/>
+    <s v="137.07"/>
+    <s v="105.67"/>
+    <s v="146.4"/>
+    <s v="148.92"/>
+    <s v="142.49"/>
+    <s v="72.8"/>
+    <s v="78.35"/>
+    <s v="138.71"/>
+    <s v="50.84"/>
+    <s v="79.11"/>
+    <s v="122.78"/>
+    <s v="138.34"/>
+    <s v="111.97"/>
+    <s v="110.45"/>
+    <s v="141.65"/>
+    <s v="58.49"/>
+    <s v="73.19"/>
+    <s v="89.01"/>
+    <s v="147.26"/>
+    <s v="108.48"/>
+    <s v="58.78"/>
+    <s v="101.19"/>
+    <s v="91.44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2030-12-01T00:00:00"/>
+    <n v="71409"/>
+    <x v="90"/>
+    <s v="0.18"/>
+    <s v="45841.59"/>
+    <s v="25567.41"/>
+    <s v="0.36"/>
+    <x v="95"/>
+    <s v="61.99"/>
+    <s v="69.14"/>
+    <s v="67.07"/>
+    <s v="144.04"/>
+    <s v="131.78"/>
+    <s v="61.5"/>
+    <s v="104.11"/>
+    <s v="74.24"/>
+    <s v="71.58"/>
+    <s v="101.61"/>
+    <s v="56.95"/>
+    <s v="72.49"/>
+    <s v="107.95"/>
+    <s v="128.63"/>
+    <s v="102.9"/>
+    <s v="125.29"/>
+    <s v="86.71"/>
+    <s v="93.01"/>
+    <s v="129.62"/>
+    <s v="78.94"/>
+    <s v="86.0"/>
+    <s v="84.49"/>
+    <s v="57.2"/>
+    <s v="121.73"/>
+    <s v="88.01"/>
+    <s v="67.22"/>
+    <s v="96.93"/>
+    <s v="113.76"/>
+    <s v="121.66"/>
+    <s v="93.5"/>
+    <s v="107.87"/>
+    <s v="66.87"/>
+    <s v="147.87"/>
+    <s v="143.81"/>
+    <s v="62.0"/>
+    <s v="76.97"/>
+    <s v="68.77"/>
+    <s v="148.07"/>
+    <s v="108.81"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2031-01-01T00:00:00"/>
+    <n v="166924"/>
+    <x v="91"/>
+    <s v="0.03"/>
+    <s v="139732.71"/>
+    <s v="27191.29"/>
+    <s v="0.16"/>
+    <x v="96"/>
+    <s v="109.76"/>
+    <s v="50.25"/>
+    <s v="81.11"/>
+    <s v="69.98"/>
+    <s v="124.2"/>
+    <s v="141.22"/>
+    <s v="74.76"/>
+    <s v="134.95"/>
+    <s v="77.92"/>
+    <s v="130.44"/>
+    <s v="55.46"/>
+    <s v="123.13"/>
+    <s v="133.89"/>
+    <s v="57.53"/>
+    <s v="141.26"/>
+    <s v="107.95"/>
+    <s v="129.19"/>
+    <s v="100.77"/>
+    <s v="77.45"/>
+    <s v="71.96"/>
+    <s v="58.56"/>
+    <s v="118.63"/>
+    <s v="85.79"/>
+    <s v="131.65"/>
+    <s v="112.68"/>
+    <s v="104.66"/>
+    <s v="81.35"/>
+    <s v="106.31"/>
+    <s v="143.5"/>
+    <s v="98.07"/>
+    <s v="105.1"/>
+    <s v="127.96"/>
+    <s v="144.86"/>
+    <s v="121.84"/>
+    <s v="90.63"/>
+    <s v="64.6"/>
+    <s v="131.43"/>
+    <s v="132.23"/>
+    <s v="66.26"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="2031-02-01T00:00:00"/>
+    <n v="336765"/>
+    <x v="92"/>
+    <s v="0.15"/>
+    <s v="218573.61"/>
+    <s v="118191.39"/>
+    <s v="0.35"/>
+    <x v="97"/>
+    <s v="135.32"/>
+    <s v="58.36"/>
+    <s v="105.85"/>
+    <s v="104.3"/>
+    <s v="124.27"/>
+    <s v="84.83"/>
+    <s v="119.34"/>
+    <s v="58.06"/>
+    <s v="136.21"/>
+    <s v="60.93"/>
+    <s v="75.47"/>
+    <s v="110.87"/>
+    <s v="95.88"/>
+    <s v="113.04"/>
+    <s v="142.86"/>
+    <s v="100.44"/>
+    <s v="70.19"/>
+    <s v="149.42"/>
+    <s v="81.78"/>
+    <s v="88.42"/>
+    <s v="90.78"/>
+    <s v="128.15"/>
+    <s v="133.76"/>
+    <s v="92.63"/>
+    <s v="149.4"/>
+    <s v="135.97"/>
+    <s v="149.09"/>
+    <s v="117.01"/>
+    <s v="63.37"/>
+    <s v="121.94"/>
+    <s v="50.21"/>
+    <s v="97.53"/>
+    <s v="125.81"/>
+    <s v="137.13"/>
+    <s v="54.24"/>
+    <s v="88.24"/>
+    <s v="141.88"/>
+    <s v="75.56"/>
+    <s v="141.99"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2031-03-01T00:00:00"/>
+    <n v="313662"/>
+    <x v="93"/>
+    <s v="0.11"/>
+    <s v="249702.81"/>
+    <s v="63959.19"/>
+    <s v="0.2"/>
+    <x v="98"/>
+    <s v="127.05"/>
+    <s v="123.72"/>
+    <s v="68.7"/>
+    <s v="111.24"/>
+    <s v="79.94"/>
+    <s v="73.84"/>
+    <s v="113.43"/>
+    <s v="83.71"/>
+    <s v="127.52"/>
+    <s v="135.43"/>
+    <s v="147.01"/>
+    <s v="126.18"/>
+    <s v="118.78"/>
+    <s v="80.11"/>
+    <s v="124.5"/>
+    <s v="120.57"/>
+    <s v="102.88"/>
+    <s v="118.03"/>
+    <s v="118.33"/>
+    <s v="132.46"/>
+    <s v="91.74"/>
+    <s v="85.73"/>
+    <s v="84.95"/>
+    <s v="103.73"/>
+    <s v="55.59"/>
+    <s v="94.97"/>
+    <s v="105.44"/>
+    <s v="137.44"/>
+    <s v="120.09"/>
+    <s v="123.95"/>
+    <s v="117.77"/>
+    <s v="86.18"/>
+    <s v="144.91"/>
+    <s v="149.94"/>
+    <s v="138.74"/>
+    <s v="147.56"/>
+    <s v="69.44"/>
+    <s v="94.54"/>
+    <s v="57.18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="2031-04-01T00:00:00"/>
+    <n v="413721"/>
+    <x v="94"/>
+    <s v="0.01"/>
+    <s v="339759.65"/>
+    <s v="73961.35"/>
+    <s v="0.18"/>
+    <x v="99"/>
+    <s v="124.31"/>
+    <s v="139.03"/>
+    <s v="98.19"/>
+    <s v="56.54"/>
+    <s v="119.34"/>
+    <s v="119.29"/>
+    <s v="120.97"/>
+    <s v="136.68"/>
+    <s v="66.15"/>
+    <s v="121.71"/>
+    <s v="148.22"/>
+    <s v="51.88"/>
+    <s v="132.6"/>
+    <s v="84.35"/>
+    <s v="117.91"/>
+    <s v="74.71"/>
+    <s v="77.58"/>
+    <s v="83.57"/>
+    <s v="82.2"/>
+    <s v="135.38"/>
+    <s v="101.07"/>
+    <s v="97.37"/>
+    <s v="52.94"/>
+    <s v="134.68"/>
+    <s v="71.14"/>
+    <s v="143.8"/>
+    <s v="91.04"/>
+    <s v="123.6"/>
+    <s v="108.91"/>
+    <s v="59.91"/>
+    <s v="110.86"/>
+    <s v="115.36"/>
+    <s v="97.56"/>
+    <s v="53.46"/>
+    <s v="128.3"/>
+    <s v="117.59"/>
+    <s v="101.17"/>
+    <s v="56.86"/>
+    <s v="85.78"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <x v="95"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="100"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E18FDF81-5B95-4DB9-BDCC-919C6F59572E}" name="Draaitabel3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:B22" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="49">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="97">
+        <item x="48"/>
+        <item x="94"/>
+        <item x="46"/>
+        <item x="58"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="52"/>
+        <item x="25"/>
+        <item x="56"/>
+        <item x="2"/>
+        <item x="83"/>
+        <item x="90"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="75"/>
+        <item x="38"/>
+        <item x="45"/>
+        <item x="84"/>
+        <item x="11"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="3"/>
+        <item x="60"/>
+        <item x="36"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="74"/>
+        <item x="40"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="68"/>
+        <item x="78"/>
+        <item x="10"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="37"/>
+        <item x="67"/>
+        <item x="92"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="55"/>
+        <item x="76"/>
+        <item x="80"/>
+        <item x="5"/>
+        <item x="85"/>
+        <item x="93"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="86"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="69"/>
+        <item x="42"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="73"/>
+        <item x="89"/>
+        <item x="63"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="82"/>
+        <item x="8"/>
+        <item x="72"/>
+        <item x="30"/>
+        <item x="88"/>
+        <item x="62"/>
+        <item x="47"/>
+        <item x="81"/>
+        <item x="71"/>
+        <item x="64"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="53"/>
+        <item x="61"/>
+        <item x="91"/>
+        <item x="59"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="57"/>
+        <item x="95"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Som van Revenue" fld="3" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Som van UnitsSold" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5681310-24F1-451B-B3D8-42C206F643DA}" name="Draaitabel2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A14:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="97">
+        <item x="48"/>
+        <item x="94"/>
+        <item x="46"/>
+        <item x="58"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="52"/>
+        <item x="25"/>
+        <item x="56"/>
+        <item x="2"/>
+        <item x="83"/>
+        <item x="90"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="75"/>
+        <item x="38"/>
+        <item x="45"/>
+        <item x="84"/>
+        <item x="11"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="3"/>
+        <item x="60"/>
+        <item x="36"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="74"/>
+        <item x="40"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="68"/>
+        <item x="78"/>
+        <item x="10"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="37"/>
+        <item x="67"/>
+        <item x="92"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="55"/>
+        <item x="76"/>
+        <item x="80"/>
+        <item x="5"/>
+        <item x="85"/>
+        <item x="93"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="86"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="69"/>
+        <item x="42"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="73"/>
+        <item x="89"/>
+        <item x="63"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="82"/>
+        <item x="8"/>
+        <item x="72"/>
+        <item x="30"/>
+        <item x="88"/>
+        <item x="62"/>
+        <item x="47"/>
+        <item x="81"/>
+        <item x="71"/>
+        <item x="64"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="53"/>
+        <item x="61"/>
+        <item x="91"/>
+        <item x="59"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="57"/>
+        <item x="95"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="102">
+        <item x="42"/>
+        <item x="10"/>
+        <item x="83"/>
+        <item x="75"/>
+        <item x="79"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="61"/>
+        <item x="88"/>
+        <item x="44"/>
+        <item x="66"/>
+        <item x="76"/>
+        <item x="19"/>
+        <item x="58"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="53"/>
+        <item x="9"/>
+        <item x="97"/>
+        <item x="41"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="82"/>
+        <item x="64"/>
+        <item x="33"/>
+        <item x="37"/>
+        <item x="60"/>
+        <item x="85"/>
+        <item x="68"/>
+        <item x="26"/>
+        <item x="93"/>
+        <item x="30"/>
+        <item x="84"/>
+        <item x="87"/>
+        <item x="70"/>
+        <item x="78"/>
+        <item x="94"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="62"/>
+        <item x="69"/>
+        <item x="7"/>
+        <item x="99"/>
+        <item x="43"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="52"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="4"/>
+        <item x="73"/>
+        <item x="11"/>
+        <item x="81"/>
+        <item x="22"/>
+        <item h="1" x="8"/>
+        <item h="1" x="46"/>
+        <item h="1" x="23"/>
+        <item h="1" x="12"/>
+        <item h="1" x="80"/>
+        <item h="1" x="74"/>
+        <item h="1" x="63"/>
+        <item h="1" x="36"/>
+        <item h="1" x="49"/>
+        <item h="1" x="91"/>
+        <item h="1" x="77"/>
+        <item h="1" x="71"/>
+        <item h="1" x="90"/>
+        <item h="1" x="21"/>
+        <item h="1" x="34"/>
+        <item h="1" x="17"/>
+        <item h="1" x="1"/>
+        <item h="1" x="27"/>
+        <item h="1" x="56"/>
+        <item h="1" x="67"/>
+        <item h="1" x="16"/>
+        <item h="1" x="40"/>
+        <item h="1" x="2"/>
+        <item h="1" x="35"/>
+        <item h="1" x="59"/>
+        <item h="1" x="65"/>
+        <item h="1" x="72"/>
+        <item h="1" x="0"/>
+        <item h="1" x="24"/>
+        <item h="1" x="29"/>
+        <item h="1" x="3"/>
+        <item h="1" x="14"/>
+        <item h="1" x="31"/>
+        <item h="1" x="92"/>
+        <item h="1" x="89"/>
+        <item h="1" x="39"/>
+        <item h="1" x="38"/>
+        <item h="1" x="95"/>
+        <item h="1" x="20"/>
+        <item h="1" x="32"/>
+        <item h="1" x="96"/>
+        <item h="1" x="50"/>
+        <item h="1" x="98"/>
+        <item h="1" x="55"/>
+        <item h="1" x="86"/>
+        <item h="1" x="57"/>
+        <item h="1" x="100"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Som van UnitsSold" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512F3D35-C22A-43CA-9F9D-8898390D26D1}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="49">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="97">
+        <item x="48"/>
+        <item x="94"/>
+        <item x="46"/>
+        <item x="58"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="52"/>
+        <item x="25"/>
+        <item x="56"/>
+        <item x="2"/>
+        <item x="83"/>
+        <item x="90"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="75"/>
+        <item x="38"/>
+        <item x="45"/>
+        <item x="84"/>
+        <item x="11"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="3"/>
+        <item x="60"/>
+        <item x="36"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="74"/>
+        <item x="40"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="68"/>
+        <item x="78"/>
+        <item x="10"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="37"/>
+        <item x="67"/>
+        <item x="92"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="55"/>
+        <item x="76"/>
+        <item x="80"/>
+        <item x="5"/>
+        <item x="85"/>
+        <item x="93"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="86"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="69"/>
+        <item x="42"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="73"/>
+        <item x="89"/>
+        <item x="63"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="82"/>
+        <item x="8"/>
+        <item x="72"/>
+        <item x="30"/>
+        <item x="88"/>
+        <item x="62"/>
+        <item x="47"/>
+        <item x="81"/>
+        <item x="71"/>
+        <item x="64"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="53"/>
+        <item x="61"/>
+        <item x="91"/>
+        <item x="59"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="57"/>
+        <item x="95"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Som van UnitsSold" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11703,7 +18201,7 @@
   <dimension ref="A1:AW101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26771,4 +33269,252 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632F7B48-0161-4D24-AE05-1CEABCC501E7}">
+  <dimension ref="A3:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="45" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="96" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5">
+        <v>7715</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9992</v>
+      </c>
+      <c r="D5">
+        <v>4076</v>
+      </c>
+      <c r="E5">
+        <v>4558</v>
+      </c>
+      <c r="G5">
+        <v>26341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>4137</v>
+      </c>
+      <c r="C6">
+        <v>9161</v>
+      </c>
+      <c r="D6">
+        <v>4446</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9256</v>
+      </c>
+      <c r="G6">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>8116</v>
+      </c>
+      <c r="C7">
+        <v>3145</v>
+      </c>
+      <c r="D7">
+        <v>8445</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9829</v>
+      </c>
+      <c r="G7">
+        <v>29535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>4648</v>
+      </c>
+      <c r="C8">
+        <v>7511</v>
+      </c>
+      <c r="D8">
+        <v>2901</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8620</v>
+      </c>
+      <c r="G8">
+        <v>23680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B10">
+        <v>24616</v>
+      </c>
+      <c r="C10">
+        <v>29809</v>
+      </c>
+      <c r="D10">
+        <v>19868</v>
+      </c>
+      <c r="E10">
+        <v>32263</v>
+      </c>
+      <c r="G10">
+        <v>106556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B19">
+        <v>9547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>24947322</v>
+      </c>
+      <c r="B22" s="5">
+        <v>106556</v>
+      </c>
+      <c r="C22">
+        <f>GETPIVOTDATA("Som van Revenue",$A$21)/GETPIVOTDATA("Som van UnitsSold",$A$21)</f>
+        <v>234.12404744922858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>